--- a/generation/download.xlsx
+++ b/generation/download.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -140,7 +135,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -580,7 +575,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -593,8 +588,8 @@
   </sheetPr>
   <dimension ref="A1:J415"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -804,7 +799,7 @@
     </row>
     <row r="16" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
-        <v>43344</v>
+        <v>43507</v>
       </c>
       <c r="B16" s="7">
         <v>8</v>
@@ -836,7 +831,7 @@
     </row>
     <row r="17" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
-        <v>43345</v>
+        <v>43508</v>
       </c>
       <c r="B17" s="7">
         <v>7</v>
@@ -868,7 +863,7 @@
     </row>
     <row r="18" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
-        <v>43346</v>
+        <v>43509</v>
       </c>
       <c r="B18" s="7">
         <v>8</v>
@@ -899,7 +894,9 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
+      <c r="A19" s="6">
+        <v>43510</v>
+      </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -911,7 +908,9 @@
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
+      <c r="A20" s="6">
+        <v>43511</v>
+      </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -923,7 +922,9 @@
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
+      <c r="A21" s="6">
+        <v>43512</v>
+      </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -935,7 +936,9 @@
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
+      <c r="A22" s="6">
+        <v>43513</v>
+      </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -947,7 +950,9 @@
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
+      <c r="A23" s="6">
+        <v>43514</v>
+      </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -959,7 +964,9 @@
       <c r="J23" s="4"/>
     </row>
     <row r="24" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
+      <c r="A24" s="6">
+        <v>43515</v>
+      </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -971,7 +978,9 @@
       <c r="J24" s="4"/>
     </row>
     <row r="25" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
+      <c r="A25" s="6">
+        <v>43516</v>
+      </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -983,7 +992,9 @@
       <c r="J25" s="4"/>
     </row>
     <row r="26" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
+      <c r="A26" s="6">
+        <v>43517</v>
+      </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -995,7 +1006,9 @@
       <c r="J26" s="4"/>
     </row>
     <row r="27" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
+      <c r="A27" s="6">
+        <v>43518</v>
+      </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -1007,7 +1020,9 @@
       <c r="J27" s="4"/>
     </row>
     <row r="28" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
+      <c r="A28" s="6">
+        <v>43519</v>
+      </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -1019,7 +1034,9 @@
       <c r="J28" s="4"/>
     </row>
     <row r="29" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
+      <c r="A29" s="6">
+        <v>43520</v>
+      </c>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -1031,7 +1048,9 @@
       <c r="J29" s="4"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
+      <c r="A30" s="6">
+        <v>43521</v>
+      </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -1043,7 +1062,9 @@
       <c r="J30" s="4"/>
     </row>
     <row r="31" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="4"/>
+      <c r="A31" s="6">
+        <v>43522</v>
+      </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -1055,7 +1076,9 @@
       <c r="J31" s="4"/>
     </row>
     <row r="32" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="4"/>
+      <c r="A32" s="6">
+        <v>43523</v>
+      </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -1067,7 +1090,9 @@
       <c r="J32" s="4"/>
     </row>
     <row r="33" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="4"/>
+      <c r="A33" s="6">
+        <v>43524</v>
+      </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -1079,7 +1104,9 @@
       <c r="J33" s="4"/>
     </row>
     <row r="34" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="4"/>
+      <c r="A34" s="6">
+        <v>43525</v>
+      </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -1091,7 +1118,9 @@
       <c r="J34" s="4"/>
     </row>
     <row r="35" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="4"/>
+      <c r="A35" s="6">
+        <v>43526</v>
+      </c>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>

--- a/generation/download.xlsx
+++ b/generation/download.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10412"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kit/PycharmProjects/PhysicalCulture_MIREA/generation/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45797F5C-96CE-9341-AB12-59105200999E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Самочувствие</t>
   </si>
@@ -46,12 +52,6 @@
   </si>
   <si>
     <t>Результаты</t>
-  </si>
-  <si>
-    <t>хорошее</t>
-  </si>
-  <si>
-    <t>хороший</t>
   </si>
   <si>
     <t>Рекомендации по заполнению дненвника:</t>
@@ -87,30 +87,6 @@
     <t>Результаты показанные во время выполнения физических упражнений.</t>
   </si>
   <si>
-    <t>да</t>
-  </si>
-  <si>
-    <t>Отжимания от пола</t>
-  </si>
-  <si>
-    <t>200 раз.</t>
-  </si>
-  <si>
-    <t>10 подходов по 20 раз, 30 мин.</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Бег</t>
-  </si>
-  <si>
-    <t>3 км, темп средний.</t>
-  </si>
-  <si>
-    <t>20 мин.</t>
-  </si>
-  <si>
     <t>Особенности выполнения физических упражнений</t>
   </si>
   <si>
@@ -135,7 +111,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -288,7 +264,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -575,55 +557,55 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J415"/>
+  <dimension ref="A1:J870"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="33.140625" customWidth="1"/>
-    <col min="8" max="8" width="40.7109375" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" customWidth="1"/>
-    <col min="10" max="10" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="7.5" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="33.1640625" customWidth="1"/>
+    <col min="8" max="8" width="40.6640625" customWidth="1"/>
+    <col min="9" max="9" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="B1" s="8" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -635,9 +617,9 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -647,9 +629,9 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -659,9 +641,9 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -671,9 +653,9 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -682,16 +664,16 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="9" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -700,16 +682,16 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="9" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -718,16 +700,16 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="11" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I11" s="12">
         <v>36161</v>
       </c>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -739,9 +721,9 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -753,7 +735,7 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -765,7 +747,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>5</v>
       </c>
@@ -788,7 +770,7 @@
         <v>7</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>8</v>
@@ -797,106 +779,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>43507</v>
       </c>
-      <c r="B16" s="7">
-        <v>8</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="7">
-        <v>60</v>
-      </c>
-      <c r="E16" s="7">
-        <v>75</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="6">
-        <v>43508</v>
-      </c>
-      <c r="B17" s="7">
-        <v>7</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="7">
-        <v>62</v>
-      </c>
-      <c r="E17" s="7">
-        <v>75</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="6">
-        <v>43509</v>
-      </c>
-      <c r="B18" s="7">
-        <v>8</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="7">
-        <v>60</v>
-      </c>
-      <c r="E18" s="7">
-        <v>75</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="6">
-        <v>43510</v>
-      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+    </row>
+    <row r="17" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A19" s="6"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -907,10 +829,8 @@
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="6">
-        <v>43511</v>
-      </c>
+    <row r="20" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A20" s="6"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -921,10 +841,8 @@
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="6">
-        <v>43512</v>
-      </c>
+    <row r="21" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A21" s="6"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -935,10 +853,8 @@
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="6">
-        <v>43513</v>
-      </c>
+    <row r="22" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A22" s="6"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -949,10 +865,8 @@
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="6">
-        <v>43514</v>
-      </c>
+    <row r="23" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A23" s="6"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -963,10 +877,8 @@
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="6">
-        <v>43515</v>
-      </c>
+    <row r="24" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A24" s="6"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -977,10 +889,8 @@
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="6">
-        <v>43516</v>
-      </c>
+    <row r="25" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A25" s="6"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -991,10 +901,8 @@
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
     </row>
-    <row r="26" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="6">
-        <v>43517</v>
-      </c>
+    <row r="26" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A26" s="6"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -1005,10 +913,8 @@
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
     </row>
-    <row r="27" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="6">
-        <v>43518</v>
-      </c>
+    <row r="27" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A27" s="6"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -1019,10 +925,8 @@
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
     </row>
-    <row r="28" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="6">
-        <v>43519</v>
-      </c>
+    <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A28" s="6"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -1033,10 +937,8 @@
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="6">
-        <v>43520</v>
-      </c>
+    <row r="29" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A29" s="6"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -1047,10 +949,8 @@
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
     </row>
-    <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="6">
-        <v>43521</v>
-      </c>
+    <row r="30" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A30" s="6"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -1061,10 +961,8 @@
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
     </row>
-    <row r="31" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="6">
-        <v>43522</v>
-      </c>
+    <row r="31" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A31" s="6"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -1075,10 +973,8 @@
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
     </row>
-    <row r="32" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="6">
-        <v>43523</v>
-      </c>
+    <row r="32" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A32" s="6"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -1089,10 +985,8 @@
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
     </row>
-    <row r="33" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="6">
-        <v>43524</v>
-      </c>
+    <row r="33" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A33" s="6"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -1103,10 +997,8 @@
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
     </row>
-    <row r="34" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="6">
-        <v>43525</v>
-      </c>
+    <row r="34" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A34" s="6"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -1117,10 +1009,8 @@
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
     </row>
-    <row r="35" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="6">
-        <v>43526</v>
-      </c>
+    <row r="35" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A35" s="6"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -1131,8 +1021,8 @@
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
     </row>
-    <row r="36" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="4"/>
+    <row r="36" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A36" s="6"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -1143,8 +1033,8 @@
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
     </row>
-    <row r="37" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="4"/>
+    <row r="37" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A37" s="6"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -1155,8 +1045,8 @@
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
     </row>
-    <row r="38" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="4"/>
+    <row r="38" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A38" s="6"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -1167,8 +1057,8 @@
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
     </row>
-    <row r="39" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="4"/>
+    <row r="39" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A39" s="6"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -1179,8 +1069,8 @@
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
     </row>
-    <row r="40" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="4"/>
+    <row r="40" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A40" s="6"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -1191,8 +1081,8 @@
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
     </row>
-    <row r="41" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="4"/>
+    <row r="41" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A41" s="6"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -1203,8 +1093,8 @@
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
     </row>
-    <row r="42" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="4"/>
+    <row r="42" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A42" s="6"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -1215,8 +1105,8 @@
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
     </row>
-    <row r="43" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="4"/>
+    <row r="43" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A43" s="6"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -1227,8 +1117,8 @@
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
     </row>
-    <row r="44" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="4"/>
+    <row r="44" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A44" s="6"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -1239,8 +1129,8 @@
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
     </row>
-    <row r="45" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A45" s="4"/>
+    <row r="45" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A45" s="6"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -1251,8 +1141,8 @@
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
     </row>
-    <row r="46" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A46" s="4"/>
+    <row r="46" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A46" s="6"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -1263,8 +1153,8 @@
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
     </row>
-    <row r="47" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A47" s="4"/>
+    <row r="47" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A47" s="6"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -1275,8 +1165,8 @@
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
     </row>
-    <row r="48" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A48" s="4"/>
+    <row r="48" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A48" s="6"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -1287,8 +1177,8 @@
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
     </row>
-    <row r="49" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A49" s="4"/>
+    <row r="49" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A49" s="6"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -1299,8 +1189,8 @@
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
     </row>
-    <row r="50" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A50" s="4"/>
+    <row r="50" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A50" s="6"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -1311,8 +1201,8 @@
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
     </row>
-    <row r="51" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A51" s="4"/>
+    <row r="51" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A51" s="6"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -1323,8 +1213,8 @@
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
     </row>
-    <row r="52" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A52" s="4"/>
+    <row r="52" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A52" s="6"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
@@ -1335,8 +1225,8 @@
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
     </row>
-    <row r="53" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A53" s="4"/>
+    <row r="53" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A53" s="6"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
@@ -1347,8 +1237,8 @@
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
     </row>
-    <row r="54" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A54" s="4"/>
+    <row r="54" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A54" s="6"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
@@ -1359,8 +1249,8 @@
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
     </row>
-    <row r="55" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A55" s="4"/>
+    <row r="55" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A55" s="6"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -1371,8 +1261,8 @@
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
     </row>
-    <row r="56" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A56" s="4"/>
+    <row r="56" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A56" s="6"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
@@ -1383,8 +1273,8 @@
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
     </row>
-    <row r="57" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A57" s="4"/>
+    <row r="57" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A57" s="6"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
@@ -1395,8 +1285,8 @@
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
     </row>
-    <row r="58" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A58" s="4"/>
+    <row r="58" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A58" s="6"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
@@ -1407,8 +1297,8 @@
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
     </row>
-    <row r="59" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A59" s="4"/>
+    <row r="59" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A59" s="6"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
@@ -1419,8 +1309,8 @@
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
     </row>
-    <row r="60" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A60" s="4"/>
+    <row r="60" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A60" s="6"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
@@ -1431,8 +1321,8 @@
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
     </row>
-    <row r="61" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A61" s="4"/>
+    <row r="61" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A61" s="6"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
@@ -1443,8 +1333,8 @@
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
     </row>
-    <row r="62" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A62" s="4"/>
+    <row r="62" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A62" s="6"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
@@ -1455,8 +1345,8 @@
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
     </row>
-    <row r="63" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A63" s="4"/>
+    <row r="63" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A63" s="6"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
@@ -1467,8 +1357,8 @@
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
     </row>
-    <row r="64" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A64" s="4"/>
+    <row r="64" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A64" s="6"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
@@ -1479,8 +1369,8 @@
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
     </row>
-    <row r="65" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A65" s="4"/>
+    <row r="65" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A65" s="6"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
@@ -1491,8 +1381,8 @@
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
     </row>
-    <row r="66" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A66" s="4"/>
+    <row r="66" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A66" s="6"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
@@ -1503,8 +1393,8 @@
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
     </row>
-    <row r="67" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A67" s="4"/>
+    <row r="67" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A67" s="6"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
@@ -1515,8 +1405,8 @@
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
     </row>
-    <row r="68" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A68" s="4"/>
+    <row r="68" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A68" s="6"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
@@ -1527,8 +1417,8 @@
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
     </row>
-    <row r="69" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A69" s="4"/>
+    <row r="69" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A69" s="6"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
@@ -1539,8 +1429,8 @@
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
     </row>
-    <row r="70" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A70" s="4"/>
+    <row r="70" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A70" s="6"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
@@ -1551,8 +1441,8 @@
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
     </row>
-    <row r="71" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A71" s="4"/>
+    <row r="71" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A71" s="6"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
@@ -1563,8 +1453,8 @@
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
     </row>
-    <row r="72" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A72" s="4"/>
+    <row r="72" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A72" s="6"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
@@ -1575,8 +1465,8 @@
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
     </row>
-    <row r="73" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A73" s="4"/>
+    <row r="73" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A73" s="6"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
@@ -1587,8 +1477,8 @@
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
     </row>
-    <row r="74" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A74" s="4"/>
+    <row r="74" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A74" s="6"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
@@ -1599,8 +1489,8 @@
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
     </row>
-    <row r="75" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A75" s="4"/>
+    <row r="75" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A75" s="6"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
@@ -1611,8 +1501,8 @@
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
     </row>
-    <row r="76" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A76" s="4"/>
+    <row r="76" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A76" s="6"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
@@ -1623,8 +1513,8 @@
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
     </row>
-    <row r="77" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A77" s="4"/>
+    <row r="77" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A77" s="6"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
@@ -1635,8 +1525,8 @@
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
     </row>
-    <row r="78" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A78" s="4"/>
+    <row r="78" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A78" s="6"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
@@ -1647,8 +1537,8 @@
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
     </row>
-    <row r="79" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A79" s="4"/>
+    <row r="79" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A79" s="6"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
@@ -1659,8 +1549,8 @@
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
     </row>
-    <row r="80" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A80" s="2"/>
+    <row r="80" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A80" s="6"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -1671,8 +1561,8 @@
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
     </row>
-    <row r="81" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A81" s="2"/>
+    <row r="81" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A81" s="6"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -1683,8 +1573,8 @@
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
     </row>
-    <row r="82" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A82" s="2"/>
+    <row r="82" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A82" s="6"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
@@ -1695,8 +1585,8 @@
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
     </row>
-    <row r="83" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A83" s="2"/>
+    <row r="83" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A83" s="6"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
@@ -1707,8 +1597,8 @@
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
     </row>
-    <row r="84" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A84" s="2"/>
+    <row r="84" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A84" s="6"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -1719,8 +1609,8 @@
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
     </row>
-    <row r="85" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A85" s="2"/>
+    <row r="85" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A85" s="6"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -1731,8 +1621,8 @@
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
     </row>
-    <row r="86" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A86" s="2"/>
+    <row r="86" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A86" s="6"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
@@ -1743,8 +1633,8 @@
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
     </row>
-    <row r="87" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A87" s="2"/>
+    <row r="87" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A87" s="6"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -1755,8 +1645,8 @@
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
     </row>
-    <row r="88" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A88" s="2"/>
+    <row r="88" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A88" s="6"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -1767,8 +1657,8 @@
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
     </row>
-    <row r="89" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A89" s="2"/>
+    <row r="89" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A89" s="6"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -1779,8 +1669,8 @@
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
     </row>
-    <row r="90" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A90" s="2"/>
+    <row r="90" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A90" s="6"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -1791,8 +1681,8 @@
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
     </row>
-    <row r="91" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A91" s="2"/>
+    <row r="91" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A91" s="6"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -1803,8 +1693,8 @@
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
     </row>
-    <row r="92" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A92" s="2"/>
+    <row r="92" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A92" s="6"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -1815,8 +1705,8 @@
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
     </row>
-    <row r="93" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A93" s="2"/>
+    <row r="93" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A93" s="6"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -1827,8 +1717,8 @@
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
     </row>
-    <row r="94" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A94" s="2"/>
+    <row r="94" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A94" s="6"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -1839,8 +1729,8 @@
       <c r="I94" s="2"/>
       <c r="J94" s="2"/>
     </row>
-    <row r="95" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A95" s="2"/>
+    <row r="95" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A95" s="6"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
@@ -1851,8 +1741,8 @@
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
     </row>
-    <row r="96" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A96" s="2"/>
+    <row r="96" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A96" s="6"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
@@ -1863,8 +1753,8 @@
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
     </row>
-    <row r="97" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A97" s="2"/>
+    <row r="97" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A97" s="6"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
@@ -1875,8 +1765,8 @@
       <c r="I97" s="2"/>
       <c r="J97" s="2"/>
     </row>
-    <row r="98" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A98" s="2"/>
+    <row r="98" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A98" s="6"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
@@ -1887,8 +1777,8 @@
       <c r="I98" s="2"/>
       <c r="J98" s="2"/>
     </row>
-    <row r="99" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A99" s="2"/>
+    <row r="99" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A99" s="6"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
@@ -1899,8 +1789,8 @@
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
     </row>
-    <row r="100" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A100" s="2"/>
+    <row r="100" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A100" s="6"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
@@ -1911,8 +1801,8 @@
       <c r="I100" s="2"/>
       <c r="J100" s="2"/>
     </row>
-    <row r="101" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A101" s="2"/>
+    <row r="101" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A101" s="6"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
@@ -1923,8 +1813,8 @@
       <c r="I101" s="2"/>
       <c r="J101" s="2"/>
     </row>
-    <row r="102" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A102" s="2"/>
+    <row r="102" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A102" s="6"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
@@ -1935,8 +1825,8 @@
       <c r="I102" s="2"/>
       <c r="J102" s="2"/>
     </row>
-    <row r="103" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A103" s="2"/>
+    <row r="103" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A103" s="6"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
@@ -1947,8 +1837,8 @@
       <c r="I103" s="2"/>
       <c r="J103" s="2"/>
     </row>
-    <row r="104" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A104" s="2"/>
+    <row r="104" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A104" s="6"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
@@ -1959,8 +1849,8 @@
       <c r="I104" s="2"/>
       <c r="J104" s="2"/>
     </row>
-    <row r="105" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A105" s="2"/>
+    <row r="105" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A105" s="6"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
@@ -1971,8 +1861,8 @@
       <c r="I105" s="2"/>
       <c r="J105" s="2"/>
     </row>
-    <row r="106" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A106" s="2"/>
+    <row r="106" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A106" s="6"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
@@ -1983,8 +1873,8 @@
       <c r="I106" s="2"/>
       <c r="J106" s="2"/>
     </row>
-    <row r="107" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A107" s="2"/>
+    <row r="107" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A107" s="6"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
@@ -1995,8 +1885,8 @@
       <c r="I107" s="2"/>
       <c r="J107" s="2"/>
     </row>
-    <row r="108" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A108" s="2"/>
+    <row r="108" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A108" s="6"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
@@ -2007,8 +1897,8 @@
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
     </row>
-    <row r="109" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A109" s="2"/>
+    <row r="109" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A109" s="6"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
@@ -2019,8 +1909,8 @@
       <c r="I109" s="2"/>
       <c r="J109" s="2"/>
     </row>
-    <row r="110" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A110" s="2"/>
+    <row r="110" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A110" s="6"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
@@ -2031,8 +1921,8 @@
       <c r="I110" s="2"/>
       <c r="J110" s="2"/>
     </row>
-    <row r="111" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A111" s="2"/>
+    <row r="111" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A111" s="6"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
@@ -2043,8 +1933,8 @@
       <c r="I111" s="2"/>
       <c r="J111" s="2"/>
     </row>
-    <row r="112" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A112" s="2"/>
+    <row r="112" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A112" s="6"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
@@ -2055,8 +1945,8 @@
       <c r="I112" s="2"/>
       <c r="J112" s="2"/>
     </row>
-    <row r="113" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A113" s="2"/>
+    <row r="113" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A113" s="6"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
@@ -2067,8 +1957,8 @@
       <c r="I113" s="2"/>
       <c r="J113" s="2"/>
     </row>
-    <row r="114" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A114" s="2"/>
+    <row r="114" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A114" s="6"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
@@ -2079,8 +1969,8 @@
       <c r="I114" s="2"/>
       <c r="J114" s="2"/>
     </row>
-    <row r="115" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A115" s="2"/>
+    <row r="115" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A115" s="6"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
@@ -2091,8 +1981,8 @@
       <c r="I115" s="2"/>
       <c r="J115" s="2"/>
     </row>
-    <row r="116" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A116" s="2"/>
+    <row r="116" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A116" s="6"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
@@ -2103,8 +1993,8 @@
       <c r="I116" s="2"/>
       <c r="J116" s="2"/>
     </row>
-    <row r="117" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A117" s="1"/>
+    <row r="117" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A117" s="6"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -2115,8 +2005,8 @@
       <c r="I117" s="1"/>
       <c r="J117" s="1"/>
     </row>
-    <row r="118" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A118" s="1"/>
+    <row r="118" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A118" s="6"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -2127,8 +2017,8 @@
       <c r="I118" s="1"/>
       <c r="J118" s="1"/>
     </row>
-    <row r="119" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A119" s="1"/>
+    <row r="119" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A119" s="6"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -2139,8 +2029,8 @@
       <c r="I119" s="1"/>
       <c r="J119" s="1"/>
     </row>
-    <row r="120" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A120" s="1"/>
+    <row r="120" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A120" s="6"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -2151,8 +2041,8 @@
       <c r="I120" s="1"/>
       <c r="J120" s="1"/>
     </row>
-    <row r="121" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A121" s="1"/>
+    <row r="121" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A121" s="6"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -2163,8 +2053,8 @@
       <c r="I121" s="1"/>
       <c r="J121" s="1"/>
     </row>
-    <row r="122" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A122" s="1"/>
+    <row r="122" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A122" s="6"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -2175,8 +2065,8 @@
       <c r="I122" s="1"/>
       <c r="J122" s="1"/>
     </row>
-    <row r="123" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A123" s="1"/>
+    <row r="123" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A123" s="6"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -2187,8 +2077,8 @@
       <c r="I123" s="1"/>
       <c r="J123" s="1"/>
     </row>
-    <row r="124" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A124" s="1"/>
+    <row r="124" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A124" s="6"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -2199,8 +2089,8 @@
       <c r="I124" s="1"/>
       <c r="J124" s="1"/>
     </row>
-    <row r="125" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A125" s="1"/>
+    <row r="125" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A125" s="6"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
@@ -2211,8 +2101,8 @@
       <c r="I125" s="1"/>
       <c r="J125" s="1"/>
     </row>
-    <row r="126" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A126" s="1"/>
+    <row r="126" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A126" s="6"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -2223,8 +2113,8 @@
       <c r="I126" s="1"/>
       <c r="J126" s="1"/>
     </row>
-    <row r="127" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A127" s="1"/>
+    <row r="127" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A127" s="6"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
@@ -2235,8 +2125,8 @@
       <c r="I127" s="1"/>
       <c r="J127" s="1"/>
     </row>
-    <row r="128" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A128" s="1"/>
+    <row r="128" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A128" s="6"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -2247,8 +2137,8 @@
       <c r="I128" s="1"/>
       <c r="J128" s="1"/>
     </row>
-    <row r="129" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A129" s="1"/>
+    <row r="129" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A129" s="6"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -2259,8 +2149,8 @@
       <c r="I129" s="1"/>
       <c r="J129" s="1"/>
     </row>
-    <row r="130" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A130" s="1"/>
+    <row r="130" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A130" s="6"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -2271,8 +2161,8 @@
       <c r="I130" s="1"/>
       <c r="J130" s="1"/>
     </row>
-    <row r="131" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A131" s="1"/>
+    <row r="131" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A131" s="6"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -2283,8 +2173,8 @@
       <c r="I131" s="1"/>
       <c r="J131" s="1"/>
     </row>
-    <row r="132" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A132" s="1"/>
+    <row r="132" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A132" s="6"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -2295,8 +2185,8 @@
       <c r="I132" s="1"/>
       <c r="J132" s="1"/>
     </row>
-    <row r="133" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A133" s="1"/>
+    <row r="133" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A133" s="6"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -2307,8 +2197,8 @@
       <c r="I133" s="1"/>
       <c r="J133" s="1"/>
     </row>
-    <row r="134" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A134" s="1"/>
+    <row r="134" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A134" s="6"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -2319,8 +2209,8 @@
       <c r="I134" s="1"/>
       <c r="J134" s="1"/>
     </row>
-    <row r="135" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A135" s="1"/>
+    <row r="135" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A135" s="6"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
@@ -2331,8 +2221,8 @@
       <c r="I135" s="1"/>
       <c r="J135" s="1"/>
     </row>
-    <row r="136" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A136" s="1"/>
+    <row r="136" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A136" s="6"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -2343,8 +2233,8 @@
       <c r="I136" s="1"/>
       <c r="J136" s="1"/>
     </row>
-    <row r="137" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A137" s="1"/>
+    <row r="137" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A137" s="6"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -2355,8 +2245,8 @@
       <c r="I137" s="1"/>
       <c r="J137" s="1"/>
     </row>
-    <row r="138" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A138" s="1"/>
+    <row r="138" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A138" s="6"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -2367,8 +2257,8 @@
       <c r="I138" s="1"/>
       <c r="J138" s="1"/>
     </row>
-    <row r="139" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A139" s="1"/>
+    <row r="139" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A139" s="6"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -2379,8 +2269,8 @@
       <c r="I139" s="1"/>
       <c r="J139" s="1"/>
     </row>
-    <row r="140" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A140" s="1"/>
+    <row r="140" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A140" s="6"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -2391,8 +2281,8 @@
       <c r="I140" s="1"/>
       <c r="J140" s="1"/>
     </row>
-    <row r="141" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A141" s="1"/>
+    <row r="141" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A141" s="6"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -2403,8 +2293,8 @@
       <c r="I141" s="1"/>
       <c r="J141" s="1"/>
     </row>
-    <row r="142" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A142" s="1"/>
+    <row r="142" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A142" s="6"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -2415,8 +2305,8 @@
       <c r="I142" s="1"/>
       <c r="J142" s="1"/>
     </row>
-    <row r="143" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A143" s="1"/>
+    <row r="143" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A143" s="6"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -2427,8 +2317,8 @@
       <c r="I143" s="1"/>
       <c r="J143" s="1"/>
     </row>
-    <row r="144" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A144" s="1"/>
+    <row r="144" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A144" s="6"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -2439,8 +2329,8 @@
       <c r="I144" s="1"/>
       <c r="J144" s="1"/>
     </row>
-    <row r="145" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A145" s="1"/>
+    <row r="145" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A145" s="6"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -2451,8 +2341,8 @@
       <c r="I145" s="1"/>
       <c r="J145" s="1"/>
     </row>
-    <row r="146" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A146" s="1"/>
+    <row r="146" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A146" s="6"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
@@ -2463,8 +2353,8 @@
       <c r="I146" s="1"/>
       <c r="J146" s="1"/>
     </row>
-    <row r="147" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A147" s="1"/>
+    <row r="147" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A147" s="6"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
@@ -2475,8 +2365,8 @@
       <c r="I147" s="1"/>
       <c r="J147" s="1"/>
     </row>
-    <row r="148" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A148" s="1"/>
+    <row r="148" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A148" s="6"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -2487,8 +2377,8 @@
       <c r="I148" s="1"/>
       <c r="J148" s="1"/>
     </row>
-    <row r="149" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A149" s="1"/>
+    <row r="149" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A149" s="6"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -2499,8 +2389,8 @@
       <c r="I149" s="1"/>
       <c r="J149" s="1"/>
     </row>
-    <row r="150" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A150" s="1"/>
+    <row r="150" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A150" s="6"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -2511,8 +2401,8 @@
       <c r="I150" s="1"/>
       <c r="J150" s="1"/>
     </row>
-    <row r="151" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A151" s="1"/>
+    <row r="151" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A151" s="6"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -2523,8 +2413,8 @@
       <c r="I151" s="1"/>
       <c r="J151" s="1"/>
     </row>
-    <row r="152" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A152" s="1"/>
+    <row r="152" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A152" s="6"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -2535,8 +2425,8 @@
       <c r="I152" s="1"/>
       <c r="J152" s="1"/>
     </row>
-    <row r="153" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A153" s="1"/>
+    <row r="153" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A153" s="6"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -2547,8 +2437,8 @@
       <c r="I153" s="1"/>
       <c r="J153" s="1"/>
     </row>
-    <row r="154" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A154" s="1"/>
+    <row r="154" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A154" s="6"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -2559,8 +2449,8 @@
       <c r="I154" s="1"/>
       <c r="J154" s="1"/>
     </row>
-    <row r="155" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A155" s="1"/>
+    <row r="155" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A155" s="6"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
@@ -2571,8 +2461,8 @@
       <c r="I155" s="1"/>
       <c r="J155" s="1"/>
     </row>
-    <row r="156" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A156" s="1"/>
+    <row r="156" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A156" s="6"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -2583,8 +2473,8 @@
       <c r="I156" s="1"/>
       <c r="J156" s="1"/>
     </row>
-    <row r="157" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A157" s="1"/>
+    <row r="157" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A157" s="6"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
@@ -2595,8 +2485,8 @@
       <c r="I157" s="1"/>
       <c r="J157" s="1"/>
     </row>
-    <row r="158" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A158" s="1"/>
+    <row r="158" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A158" s="6"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
@@ -2607,8 +2497,8 @@
       <c r="I158" s="1"/>
       <c r="J158" s="1"/>
     </row>
-    <row r="159" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A159" s="1"/>
+    <row r="159" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A159" s="6"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
@@ -2619,8 +2509,8 @@
       <c r="I159" s="1"/>
       <c r="J159" s="1"/>
     </row>
-    <row r="160" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A160" s="1"/>
+    <row r="160" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A160" s="6"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
@@ -2631,8 +2521,8 @@
       <c r="I160" s="1"/>
       <c r="J160" s="1"/>
     </row>
-    <row r="161" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A161" s="1"/>
+    <row r="161" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A161" s="6"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
@@ -2643,8 +2533,8 @@
       <c r="I161" s="1"/>
       <c r="J161" s="1"/>
     </row>
-    <row r="162" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A162" s="1"/>
+    <row r="162" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A162" s="6"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -2655,8 +2545,8 @@
       <c r="I162" s="1"/>
       <c r="J162" s="1"/>
     </row>
-    <row r="163" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A163" s="1"/>
+    <row r="163" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A163" s="6"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
@@ -2667,8 +2557,8 @@
       <c r="I163" s="1"/>
       <c r="J163" s="1"/>
     </row>
-    <row r="164" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A164" s="1"/>
+    <row r="164" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A164" s="6"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -2679,8 +2569,8 @@
       <c r="I164" s="1"/>
       <c r="J164" s="1"/>
     </row>
-    <row r="165" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A165" s="1"/>
+    <row r="165" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A165" s="6"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
@@ -2691,8 +2581,8 @@
       <c r="I165" s="1"/>
       <c r="J165" s="1"/>
     </row>
-    <row r="166" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A166" s="1"/>
+    <row r="166" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A166" s="6"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
@@ -2703,8 +2593,8 @@
       <c r="I166" s="1"/>
       <c r="J166" s="1"/>
     </row>
-    <row r="167" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A167" s="1"/>
+    <row r="167" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A167" s="6"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
@@ -2715,8 +2605,8 @@
       <c r="I167" s="1"/>
       <c r="J167" s="1"/>
     </row>
-    <row r="168" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A168" s="1"/>
+    <row r="168" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A168" s="6"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
@@ -2727,8 +2617,8 @@
       <c r="I168" s="1"/>
       <c r="J168" s="1"/>
     </row>
-    <row r="169" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A169" s="1"/>
+    <row r="169" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A169" s="6"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
@@ -2739,8 +2629,8 @@
       <c r="I169" s="1"/>
       <c r="J169" s="1"/>
     </row>
-    <row r="170" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A170" s="1"/>
+    <row r="170" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A170" s="6"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
@@ -2751,8 +2641,8 @@
       <c r="I170" s="1"/>
       <c r="J170" s="1"/>
     </row>
-    <row r="171" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A171" s="1"/>
+    <row r="171" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A171" s="6"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
@@ -2763,8 +2653,8 @@
       <c r="I171" s="1"/>
       <c r="J171" s="1"/>
     </row>
-    <row r="172" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A172" s="1"/>
+    <row r="172" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A172" s="6"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
@@ -2775,8 +2665,8 @@
       <c r="I172" s="1"/>
       <c r="J172" s="1"/>
     </row>
-    <row r="173" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A173" s="1"/>
+    <row r="173" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A173" s="6"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
@@ -2787,8 +2677,8 @@
       <c r="I173" s="1"/>
       <c r="J173" s="1"/>
     </row>
-    <row r="174" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A174" s="1"/>
+    <row r="174" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A174" s="6"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
@@ -2799,8 +2689,8 @@
       <c r="I174" s="1"/>
       <c r="J174" s="1"/>
     </row>
-    <row r="175" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A175" s="1"/>
+    <row r="175" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A175" s="6"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
@@ -2811,8 +2701,8 @@
       <c r="I175" s="1"/>
       <c r="J175" s="1"/>
     </row>
-    <row r="176" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A176" s="1"/>
+    <row r="176" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A176" s="6"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -2823,8 +2713,8 @@
       <c r="I176" s="1"/>
       <c r="J176" s="1"/>
     </row>
-    <row r="177" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A177" s="1"/>
+    <row r="177" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A177" s="6"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
@@ -2835,8 +2725,8 @@
       <c r="I177" s="1"/>
       <c r="J177" s="1"/>
     </row>
-    <row r="178" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A178" s="1"/>
+    <row r="178" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A178" s="6"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -2847,8 +2737,8 @@
       <c r="I178" s="1"/>
       <c r="J178" s="1"/>
     </row>
-    <row r="179" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A179" s="1"/>
+    <row r="179" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A179" s="6"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
@@ -2859,8 +2749,8 @@
       <c r="I179" s="1"/>
       <c r="J179" s="1"/>
     </row>
-    <row r="180" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A180" s="1"/>
+    <row r="180" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A180" s="6"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
@@ -2871,8 +2761,8 @@
       <c r="I180" s="1"/>
       <c r="J180" s="1"/>
     </row>
-    <row r="181" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A181" s="1"/>
+    <row r="181" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A181" s="6"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
@@ -2883,8 +2773,8 @@
       <c r="I181" s="1"/>
       <c r="J181" s="1"/>
     </row>
-    <row r="182" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A182" s="1"/>
+    <row r="182" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A182" s="6"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
@@ -2895,8 +2785,8 @@
       <c r="I182" s="1"/>
       <c r="J182" s="1"/>
     </row>
-    <row r="183" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A183" s="1"/>
+    <row r="183" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A183" s="6"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
@@ -2907,8 +2797,8 @@
       <c r="I183" s="1"/>
       <c r="J183" s="1"/>
     </row>
-    <row r="184" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A184" s="1"/>
+    <row r="184" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A184" s="6"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
@@ -2919,8 +2809,8 @@
       <c r="I184" s="1"/>
       <c r="J184" s="1"/>
     </row>
-    <row r="185" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A185" s="1"/>
+    <row r="185" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A185" s="6"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
@@ -2931,8 +2821,8 @@
       <c r="I185" s="1"/>
       <c r="J185" s="1"/>
     </row>
-    <row r="186" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A186" s="1"/>
+    <row r="186" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A186" s="6"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
@@ -2943,8 +2833,8 @@
       <c r="I186" s="1"/>
       <c r="J186" s="1"/>
     </row>
-    <row r="187" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A187" s="1"/>
+    <row r="187" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A187" s="6"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
@@ -2955,8 +2845,8 @@
       <c r="I187" s="1"/>
       <c r="J187" s="1"/>
     </row>
-    <row r="188" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A188" s="1"/>
+    <row r="188" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A188" s="6"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
@@ -2967,8 +2857,8 @@
       <c r="I188" s="1"/>
       <c r="J188" s="1"/>
     </row>
-    <row r="189" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A189" s="1"/>
+    <row r="189" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A189" s="6"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
@@ -2979,8 +2869,8 @@
       <c r="I189" s="1"/>
       <c r="J189" s="1"/>
     </row>
-    <row r="190" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A190" s="1"/>
+    <row r="190" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A190" s="6"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
@@ -2991,8 +2881,8 @@
       <c r="I190" s="1"/>
       <c r="J190" s="1"/>
     </row>
-    <row r="191" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A191" s="1"/>
+    <row r="191" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A191" s="6"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
@@ -3003,8 +2893,8 @@
       <c r="I191" s="1"/>
       <c r="J191" s="1"/>
     </row>
-    <row r="192" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A192" s="1"/>
+    <row r="192" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A192" s="6"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
@@ -3015,8 +2905,8 @@
       <c r="I192" s="1"/>
       <c r="J192" s="1"/>
     </row>
-    <row r="193" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A193" s="1"/>
+    <row r="193" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A193" s="6"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
@@ -3027,8 +2917,8 @@
       <c r="I193" s="1"/>
       <c r="J193" s="1"/>
     </row>
-    <row r="194" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A194" s="1"/>
+    <row r="194" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A194" s="6"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
@@ -3039,8 +2929,8 @@
       <c r="I194" s="1"/>
       <c r="J194" s="1"/>
     </row>
-    <row r="195" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A195" s="1"/>
+    <row r="195" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A195" s="6"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
@@ -3051,8 +2941,8 @@
       <c r="I195" s="1"/>
       <c r="J195" s="1"/>
     </row>
-    <row r="196" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A196" s="1"/>
+    <row r="196" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A196" s="6"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
@@ -3063,8 +2953,8 @@
       <c r="I196" s="1"/>
       <c r="J196" s="1"/>
     </row>
-    <row r="197" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A197" s="1"/>
+    <row r="197" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A197" s="6"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
@@ -3075,8 +2965,8 @@
       <c r="I197" s="1"/>
       <c r="J197" s="1"/>
     </row>
-    <row r="198" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A198" s="1"/>
+    <row r="198" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A198" s="6"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
@@ -3087,8 +2977,8 @@
       <c r="I198" s="1"/>
       <c r="J198" s="1"/>
     </row>
-    <row r="199" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A199" s="1"/>
+    <row r="199" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A199" s="6"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
@@ -3099,8 +2989,8 @@
       <c r="I199" s="1"/>
       <c r="J199" s="1"/>
     </row>
-    <row r="200" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A200" s="1"/>
+    <row r="200" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A200" s="6"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
@@ -3111,8 +3001,8 @@
       <c r="I200" s="1"/>
       <c r="J200" s="1"/>
     </row>
-    <row r="201" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A201" s="1"/>
+    <row r="201" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A201" s="6"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
@@ -3123,8 +3013,8 @@
       <c r="I201" s="1"/>
       <c r="J201" s="1"/>
     </row>
-    <row r="202" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A202" s="1"/>
+    <row r="202" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A202" s="6"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
@@ -3135,8 +3025,8 @@
       <c r="I202" s="1"/>
       <c r="J202" s="1"/>
     </row>
-    <row r="203" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A203" s="1"/>
+    <row r="203" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A203" s="6"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
@@ -3147,8 +3037,8 @@
       <c r="I203" s="1"/>
       <c r="J203" s="1"/>
     </row>
-    <row r="204" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A204" s="1"/>
+    <row r="204" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A204" s="6"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
@@ -3159,8 +3049,8 @@
       <c r="I204" s="1"/>
       <c r="J204" s="1"/>
     </row>
-    <row r="205" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A205" s="1"/>
+    <row r="205" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A205" s="6"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
@@ -3171,8 +3061,8 @@
       <c r="I205" s="1"/>
       <c r="J205" s="1"/>
     </row>
-    <row r="206" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A206" s="1"/>
+    <row r="206" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A206" s="6"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
@@ -3183,8 +3073,8 @@
       <c r="I206" s="1"/>
       <c r="J206" s="1"/>
     </row>
-    <row r="207" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A207" s="1"/>
+    <row r="207" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A207" s="6"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
@@ -3195,8 +3085,8 @@
       <c r="I207" s="1"/>
       <c r="J207" s="1"/>
     </row>
-    <row r="208" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A208" s="1"/>
+    <row r="208" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A208" s="6"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
@@ -3207,8 +3097,8 @@
       <c r="I208" s="1"/>
       <c r="J208" s="1"/>
     </row>
-    <row r="209" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A209" s="1"/>
+    <row r="209" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A209" s="6"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
@@ -3219,8 +3109,8 @@
       <c r="I209" s="1"/>
       <c r="J209" s="1"/>
     </row>
-    <row r="210" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A210" s="1"/>
+    <row r="210" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A210" s="6"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
@@ -3231,8 +3121,8 @@
       <c r="I210" s="1"/>
       <c r="J210" s="1"/>
     </row>
-    <row r="211" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A211" s="1"/>
+    <row r="211" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A211" s="6"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
@@ -3243,8 +3133,8 @@
       <c r="I211" s="1"/>
       <c r="J211" s="1"/>
     </row>
-    <row r="212" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A212" s="1"/>
+    <row r="212" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A212" s="6"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
@@ -3255,8 +3145,8 @@
       <c r="I212" s="1"/>
       <c r="J212" s="1"/>
     </row>
-    <row r="213" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A213" s="1"/>
+    <row r="213" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A213" s="6"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
@@ -3267,8 +3157,8 @@
       <c r="I213" s="1"/>
       <c r="J213" s="1"/>
     </row>
-    <row r="214" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A214" s="1"/>
+    <row r="214" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A214" s="6"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
@@ -3279,8 +3169,8 @@
       <c r="I214" s="1"/>
       <c r="J214" s="1"/>
     </row>
-    <row r="215" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A215" s="1"/>
+    <row r="215" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A215" s="6"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
@@ -3291,8 +3181,8 @@
       <c r="I215" s="1"/>
       <c r="J215" s="1"/>
     </row>
-    <row r="216" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A216" s="1"/>
+    <row r="216" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A216" s="6"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
@@ -3303,8 +3193,8 @@
       <c r="I216" s="1"/>
       <c r="J216" s="1"/>
     </row>
-    <row r="217" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A217" s="1"/>
+    <row r="217" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A217" s="6"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
@@ -3315,8 +3205,8 @@
       <c r="I217" s="1"/>
       <c r="J217" s="1"/>
     </row>
-    <row r="218" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A218" s="1"/>
+    <row r="218" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A218" s="6"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
@@ -3327,8 +3217,8 @@
       <c r="I218" s="1"/>
       <c r="J218" s="1"/>
     </row>
-    <row r="219" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A219" s="1"/>
+    <row r="219" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A219" s="6"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
@@ -3339,8 +3229,8 @@
       <c r="I219" s="1"/>
       <c r="J219" s="1"/>
     </row>
-    <row r="220" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A220" s="1"/>
+    <row r="220" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A220" s="6"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
@@ -3351,8 +3241,8 @@
       <c r="I220" s="1"/>
       <c r="J220" s="1"/>
     </row>
-    <row r="221" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A221" s="1"/>
+    <row r="221" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A221" s="6"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
@@ -3363,8 +3253,8 @@
       <c r="I221" s="1"/>
       <c r="J221" s="1"/>
     </row>
-    <row r="222" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A222" s="1"/>
+    <row r="222" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A222" s="6"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
@@ -3375,8 +3265,8 @@
       <c r="I222" s="1"/>
       <c r="J222" s="1"/>
     </row>
-    <row r="223" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A223" s="1"/>
+    <row r="223" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A223" s="6"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
@@ -3387,8 +3277,8 @@
       <c r="I223" s="1"/>
       <c r="J223" s="1"/>
     </row>
-    <row r="224" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A224" s="1"/>
+    <row r="224" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A224" s="6"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
@@ -3399,8 +3289,8 @@
       <c r="I224" s="1"/>
       <c r="J224" s="1"/>
     </row>
-    <row r="225" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A225" s="1"/>
+    <row r="225" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A225" s="6"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
@@ -3411,8 +3301,8 @@
       <c r="I225" s="1"/>
       <c r="J225" s="1"/>
     </row>
-    <row r="226" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A226" s="1"/>
+    <row r="226" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A226" s="6"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
@@ -3423,8 +3313,8 @@
       <c r="I226" s="1"/>
       <c r="J226" s="1"/>
     </row>
-    <row r="227" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A227" s="1"/>
+    <row r="227" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A227" s="6"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
@@ -3435,8 +3325,8 @@
       <c r="I227" s="1"/>
       <c r="J227" s="1"/>
     </row>
-    <row r="228" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A228" s="1"/>
+    <row r="228" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A228" s="6"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
@@ -3447,8 +3337,8 @@
       <c r="I228" s="1"/>
       <c r="J228" s="1"/>
     </row>
-    <row r="229" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A229" s="1"/>
+    <row r="229" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A229" s="6"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
@@ -3459,8 +3349,8 @@
       <c r="I229" s="1"/>
       <c r="J229" s="1"/>
     </row>
-    <row r="230" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A230" s="1"/>
+    <row r="230" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A230" s="6"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
@@ -3471,8 +3361,8 @@
       <c r="I230" s="1"/>
       <c r="J230" s="1"/>
     </row>
-    <row r="231" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A231" s="1"/>
+    <row r="231" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A231" s="6"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
@@ -3483,8 +3373,8 @@
       <c r="I231" s="1"/>
       <c r="J231" s="1"/>
     </row>
-    <row r="232" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A232" s="1"/>
+    <row r="232" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A232" s="6"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
@@ -3495,8 +3385,8 @@
       <c r="I232" s="1"/>
       <c r="J232" s="1"/>
     </row>
-    <row r="233" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A233" s="1"/>
+    <row r="233" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A233" s="6"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
@@ -3507,8 +3397,8 @@
       <c r="I233" s="1"/>
       <c r="J233" s="1"/>
     </row>
-    <row r="234" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A234" s="1"/>
+    <row r="234" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A234" s="6"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
@@ -3519,8 +3409,8 @@
       <c r="I234" s="1"/>
       <c r="J234" s="1"/>
     </row>
-    <row r="235" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A235" s="1"/>
+    <row r="235" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A235" s="6"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
@@ -3531,8 +3421,8 @@
       <c r="I235" s="1"/>
       <c r="J235" s="1"/>
     </row>
-    <row r="236" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A236" s="1"/>
+    <row r="236" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A236" s="6"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
@@ -3543,8 +3433,8 @@
       <c r="I236" s="1"/>
       <c r="J236" s="1"/>
     </row>
-    <row r="237" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A237" s="1"/>
+    <row r="237" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A237" s="6"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
@@ -3555,8 +3445,8 @@
       <c r="I237" s="1"/>
       <c r="J237" s="1"/>
     </row>
-    <row r="238" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A238" s="1"/>
+    <row r="238" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A238" s="6"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
@@ -3567,8 +3457,8 @@
       <c r="I238" s="1"/>
       <c r="J238" s="1"/>
     </row>
-    <row r="239" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A239" s="1"/>
+    <row r="239" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A239" s="6"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
@@ -3579,8 +3469,8 @@
       <c r="I239" s="1"/>
       <c r="J239" s="1"/>
     </row>
-    <row r="240" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A240" s="1"/>
+    <row r="240" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A240" s="6"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
@@ -3591,8 +3481,8 @@
       <c r="I240" s="1"/>
       <c r="J240" s="1"/>
     </row>
-    <row r="241" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A241" s="1"/>
+    <row r="241" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A241" s="6"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
@@ -3603,8 +3493,8 @@
       <c r="I241" s="1"/>
       <c r="J241" s="1"/>
     </row>
-    <row r="242" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A242" s="1"/>
+    <row r="242" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A242" s="6"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
@@ -3615,8 +3505,8 @@
       <c r="I242" s="1"/>
       <c r="J242" s="1"/>
     </row>
-    <row r="243" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A243" s="1"/>
+    <row r="243" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A243" s="6"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
@@ -3627,8 +3517,8 @@
       <c r="I243" s="1"/>
       <c r="J243" s="1"/>
     </row>
-    <row r="244" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A244" s="1"/>
+    <row r="244" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A244" s="6"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
@@ -3639,8 +3529,8 @@
       <c r="I244" s="1"/>
       <c r="J244" s="1"/>
     </row>
-    <row r="245" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A245" s="1"/>
+    <row r="245" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A245" s="6"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
@@ -3651,8 +3541,8 @@
       <c r="I245" s="1"/>
       <c r="J245" s="1"/>
     </row>
-    <row r="246" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A246" s="1"/>
+    <row r="246" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A246" s="6"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
@@ -3663,8 +3553,8 @@
       <c r="I246" s="1"/>
       <c r="J246" s="1"/>
     </row>
-    <row r="247" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A247" s="1"/>
+    <row r="247" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A247" s="6"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
@@ -3675,8 +3565,8 @@
       <c r="I247" s="1"/>
       <c r="J247" s="1"/>
     </row>
-    <row r="248" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A248" s="1"/>
+    <row r="248" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A248" s="6"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
@@ -3687,8 +3577,8 @@
       <c r="I248" s="1"/>
       <c r="J248" s="1"/>
     </row>
-    <row r="249" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A249" s="1"/>
+    <row r="249" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A249" s="6"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
@@ -3699,8 +3589,8 @@
       <c r="I249" s="1"/>
       <c r="J249" s="1"/>
     </row>
-    <row r="250" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A250" s="1"/>
+    <row r="250" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A250" s="6"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
@@ -3711,8 +3601,8 @@
       <c r="I250" s="1"/>
       <c r="J250" s="1"/>
     </row>
-    <row r="251" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A251" s="1"/>
+    <row r="251" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A251" s="6"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
@@ -3723,8 +3613,8 @@
       <c r="I251" s="1"/>
       <c r="J251" s="1"/>
     </row>
-    <row r="252" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A252" s="1"/>
+    <row r="252" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A252" s="6"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
@@ -3735,8 +3625,8 @@
       <c r="I252" s="1"/>
       <c r="J252" s="1"/>
     </row>
-    <row r="253" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A253" s="1"/>
+    <row r="253" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A253" s="6"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
@@ -3747,8 +3637,8 @@
       <c r="I253" s="1"/>
       <c r="J253" s="1"/>
     </row>
-    <row r="254" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A254" s="1"/>
+    <row r="254" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A254" s="6"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
@@ -3759,8 +3649,8 @@
       <c r="I254" s="1"/>
       <c r="J254" s="1"/>
     </row>
-    <row r="255" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A255" s="1"/>
+    <row r="255" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A255" s="6"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
@@ -3771,8 +3661,8 @@
       <c r="I255" s="1"/>
       <c r="J255" s="1"/>
     </row>
-    <row r="256" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A256" s="1"/>
+    <row r="256" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A256" s="6"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
@@ -3783,8 +3673,8 @@
       <c r="I256" s="1"/>
       <c r="J256" s="1"/>
     </row>
-    <row r="257" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A257" s="1"/>
+    <row r="257" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A257" s="6"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
@@ -3795,8 +3685,8 @@
       <c r="I257" s="1"/>
       <c r="J257" s="1"/>
     </row>
-    <row r="258" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A258" s="1"/>
+    <row r="258" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A258" s="6"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
@@ -3807,8 +3697,8 @@
       <c r="I258" s="1"/>
       <c r="J258" s="1"/>
     </row>
-    <row r="259" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A259" s="1"/>
+    <row r="259" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A259" s="6"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
@@ -3819,8 +3709,8 @@
       <c r="I259" s="1"/>
       <c r="J259" s="1"/>
     </row>
-    <row r="260" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A260" s="1"/>
+    <row r="260" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A260" s="6"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
@@ -3831,8 +3721,8 @@
       <c r="I260" s="1"/>
       <c r="J260" s="1"/>
     </row>
-    <row r="261" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A261" s="1"/>
+    <row r="261" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A261" s="6"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
@@ -3843,8 +3733,8 @@
       <c r="I261" s="1"/>
       <c r="J261" s="1"/>
     </row>
-    <row r="262" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A262" s="1"/>
+    <row r="262" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A262" s="6"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
@@ -3855,8 +3745,8 @@
       <c r="I262" s="1"/>
       <c r="J262" s="1"/>
     </row>
-    <row r="263" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A263" s="1"/>
+    <row r="263" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A263" s="6"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
@@ -3867,8 +3757,8 @@
       <c r="I263" s="1"/>
       <c r="J263" s="1"/>
     </row>
-    <row r="264" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A264" s="1"/>
+    <row r="264" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A264" s="6"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
@@ -3879,8 +3769,8 @@
       <c r="I264" s="1"/>
       <c r="J264" s="1"/>
     </row>
-    <row r="265" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A265" s="1"/>
+    <row r="265" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A265" s="6"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
@@ -3891,8 +3781,8 @@
       <c r="I265" s="1"/>
       <c r="J265" s="1"/>
     </row>
-    <row r="266" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A266" s="1"/>
+    <row r="266" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A266" s="6"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
@@ -3903,8 +3793,8 @@
       <c r="I266" s="1"/>
       <c r="J266" s="1"/>
     </row>
-    <row r="267" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A267" s="1"/>
+    <row r="267" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A267" s="6"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
@@ -3915,8 +3805,8 @@
       <c r="I267" s="1"/>
       <c r="J267" s="1"/>
     </row>
-    <row r="268" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A268" s="1"/>
+    <row r="268" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A268" s="6"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
@@ -3927,8 +3817,8 @@
       <c r="I268" s="1"/>
       <c r="J268" s="1"/>
     </row>
-    <row r="269" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A269" s="1"/>
+    <row r="269" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A269" s="6"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
@@ -3939,8 +3829,8 @@
       <c r="I269" s="1"/>
       <c r="J269" s="1"/>
     </row>
-    <row r="270" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A270" s="1"/>
+    <row r="270" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A270" s="6"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
@@ -3951,8 +3841,8 @@
       <c r="I270" s="1"/>
       <c r="J270" s="1"/>
     </row>
-    <row r="271" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A271" s="1"/>
+    <row r="271" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A271" s="6"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
@@ -3963,8 +3853,8 @@
       <c r="I271" s="1"/>
       <c r="J271" s="1"/>
     </row>
-    <row r="272" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A272" s="1"/>
+    <row r="272" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A272" s="6"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
@@ -3975,8 +3865,8 @@
       <c r="I272" s="1"/>
       <c r="J272" s="1"/>
     </row>
-    <row r="273" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A273" s="1"/>
+    <row r="273" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A273" s="6"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
@@ -3987,8 +3877,8 @@
       <c r="I273" s="1"/>
       <c r="J273" s="1"/>
     </row>
-    <row r="274" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A274" s="1"/>
+    <row r="274" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A274" s="6"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
@@ -3999,8 +3889,8 @@
       <c r="I274" s="1"/>
       <c r="J274" s="1"/>
     </row>
-    <row r="275" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A275" s="1"/>
+    <row r="275" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A275" s="6"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
@@ -4011,8 +3901,8 @@
       <c r="I275" s="1"/>
       <c r="J275" s="1"/>
     </row>
-    <row r="276" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A276" s="1"/>
+    <row r="276" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A276" s="6"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
@@ -4023,8 +3913,8 @@
       <c r="I276" s="1"/>
       <c r="J276" s="1"/>
     </row>
-    <row r="277" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A277" s="1"/>
+    <row r="277" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A277" s="6"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
@@ -4035,8 +3925,8 @@
       <c r="I277" s="1"/>
       <c r="J277" s="1"/>
     </row>
-    <row r="278" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A278" s="1"/>
+    <row r="278" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A278" s="6"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
@@ -4047,8 +3937,8 @@
       <c r="I278" s="1"/>
       <c r="J278" s="1"/>
     </row>
-    <row r="279" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A279" s="1"/>
+    <row r="279" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A279" s="6"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
@@ -4059,8 +3949,8 @@
       <c r="I279" s="1"/>
       <c r="J279" s="1"/>
     </row>
-    <row r="280" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A280" s="1"/>
+    <row r="280" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A280" s="6"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
@@ -4071,8 +3961,8 @@
       <c r="I280" s="1"/>
       <c r="J280" s="1"/>
     </row>
-    <row r="281" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A281" s="1"/>
+    <row r="281" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A281" s="6"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
@@ -4083,8 +3973,8 @@
       <c r="I281" s="1"/>
       <c r="J281" s="1"/>
     </row>
-    <row r="282" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A282" s="1"/>
+    <row r="282" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A282" s="6"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
@@ -4095,8 +3985,8 @@
       <c r="I282" s="1"/>
       <c r="J282" s="1"/>
     </row>
-    <row r="283" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A283" s="1"/>
+    <row r="283" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A283" s="6"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
@@ -4107,8 +3997,8 @@
       <c r="I283" s="1"/>
       <c r="J283" s="1"/>
     </row>
-    <row r="284" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A284" s="1"/>
+    <row r="284" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A284" s="6"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
@@ -4119,8 +4009,8 @@
       <c r="I284" s="1"/>
       <c r="J284" s="1"/>
     </row>
-    <row r="285" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A285" s="1"/>
+    <row r="285" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A285" s="6"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
@@ -4131,8 +4021,8 @@
       <c r="I285" s="1"/>
       <c r="J285" s="1"/>
     </row>
-    <row r="286" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A286" s="1"/>
+    <row r="286" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A286" s="6"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
@@ -4143,8 +4033,8 @@
       <c r="I286" s="1"/>
       <c r="J286" s="1"/>
     </row>
-    <row r="287" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A287" s="1"/>
+    <row r="287" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A287" s="6"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
@@ -4155,8 +4045,8 @@
       <c r="I287" s="1"/>
       <c r="J287" s="1"/>
     </row>
-    <row r="288" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A288" s="1"/>
+    <row r="288" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A288" s="6"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
@@ -4167,8 +4057,8 @@
       <c r="I288" s="1"/>
       <c r="J288" s="1"/>
     </row>
-    <row r="289" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A289" s="1"/>
+    <row r="289" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A289" s="6"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
@@ -4179,8 +4069,8 @@
       <c r="I289" s="1"/>
       <c r="J289" s="1"/>
     </row>
-    <row r="290" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A290" s="1"/>
+    <row r="290" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A290" s="6"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
@@ -4191,8 +4081,8 @@
       <c r="I290" s="1"/>
       <c r="J290" s="1"/>
     </row>
-    <row r="291" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A291" s="1"/>
+    <row r="291" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A291" s="6"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
@@ -4203,8 +4093,8 @@
       <c r="I291" s="1"/>
       <c r="J291" s="1"/>
     </row>
-    <row r="292" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A292" s="1"/>
+    <row r="292" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A292" s="6"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
@@ -4215,8 +4105,8 @@
       <c r="I292" s="1"/>
       <c r="J292" s="1"/>
     </row>
-    <row r="293" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A293" s="1"/>
+    <row r="293" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A293" s="6"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
@@ -4227,8 +4117,8 @@
       <c r="I293" s="1"/>
       <c r="J293" s="1"/>
     </row>
-    <row r="294" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A294" s="1"/>
+    <row r="294" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A294" s="6"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
@@ -4239,8 +4129,8 @@
       <c r="I294" s="1"/>
       <c r="J294" s="1"/>
     </row>
-    <row r="295" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A295" s="1"/>
+    <row r="295" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A295" s="6"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
@@ -4251,8 +4141,8 @@
       <c r="I295" s="1"/>
       <c r="J295" s="1"/>
     </row>
-    <row r="296" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A296" s="1"/>
+    <row r="296" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A296" s="6"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
       <c r="D296" s="1"/>
@@ -4263,8 +4153,8 @@
       <c r="I296" s="1"/>
       <c r="J296" s="1"/>
     </row>
-    <row r="297" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A297" s="1"/>
+    <row r="297" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A297" s="6"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
@@ -4275,8 +4165,8 @@
       <c r="I297" s="1"/>
       <c r="J297" s="1"/>
     </row>
-    <row r="298" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A298" s="1"/>
+    <row r="298" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A298" s="6"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
@@ -4287,8 +4177,8 @@
       <c r="I298" s="1"/>
       <c r="J298" s="1"/>
     </row>
-    <row r="299" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A299" s="1"/>
+    <row r="299" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A299" s="6"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
@@ -4299,8 +4189,8 @@
       <c r="I299" s="1"/>
       <c r="J299" s="1"/>
     </row>
-    <row r="300" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A300" s="1"/>
+    <row r="300" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A300" s="6"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
       <c r="D300" s="1"/>
@@ -4311,8 +4201,8 @@
       <c r="I300" s="1"/>
       <c r="J300" s="1"/>
     </row>
-    <row r="301" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A301" s="1"/>
+    <row r="301" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A301" s="6"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
       <c r="D301" s="1"/>
@@ -4323,8 +4213,8 @@
       <c r="I301" s="1"/>
       <c r="J301" s="1"/>
     </row>
-    <row r="302" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A302" s="1"/>
+    <row r="302" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A302" s="6"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
       <c r="D302" s="1"/>
@@ -4335,8 +4225,8 @@
       <c r="I302" s="1"/>
       <c r="J302" s="1"/>
     </row>
-    <row r="303" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A303" s="1"/>
+    <row r="303" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A303" s="6"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
       <c r="D303" s="1"/>
@@ -4347,8 +4237,8 @@
       <c r="I303" s="1"/>
       <c r="J303" s="1"/>
     </row>
-    <row r="304" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A304" s="1"/>
+    <row r="304" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A304" s="6"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
       <c r="D304" s="1"/>
@@ -4359,8 +4249,8 @@
       <c r="I304" s="1"/>
       <c r="J304" s="1"/>
     </row>
-    <row r="305" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A305" s="1"/>
+    <row r="305" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A305" s="6"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
       <c r="D305" s="1"/>
@@ -4371,8 +4261,8 @@
       <c r="I305" s="1"/>
       <c r="J305" s="1"/>
     </row>
-    <row r="306" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A306" s="1"/>
+    <row r="306" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A306" s="6"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
       <c r="D306" s="1"/>
@@ -4383,8 +4273,8 @@
       <c r="I306" s="1"/>
       <c r="J306" s="1"/>
     </row>
-    <row r="307" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A307" s="1"/>
+    <row r="307" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A307" s="6"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
       <c r="D307" s="1"/>
@@ -4395,8 +4285,8 @@
       <c r="I307" s="1"/>
       <c r="J307" s="1"/>
     </row>
-    <row r="308" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A308" s="1"/>
+    <row r="308" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A308" s="6"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
       <c r="D308" s="1"/>
@@ -4407,8 +4297,8 @@
       <c r="I308" s="1"/>
       <c r="J308" s="1"/>
     </row>
-    <row r="309" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A309" s="1"/>
+    <row r="309" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A309" s="6"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
       <c r="D309" s="1"/>
@@ -4419,8 +4309,8 @@
       <c r="I309" s="1"/>
       <c r="J309" s="1"/>
     </row>
-    <row r="310" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A310" s="1"/>
+    <row r="310" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A310" s="6"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
       <c r="D310" s="1"/>
@@ -4431,8 +4321,8 @@
       <c r="I310" s="1"/>
       <c r="J310" s="1"/>
     </row>
-    <row r="311" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A311" s="1"/>
+    <row r="311" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A311" s="6"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
       <c r="D311" s="1"/>
@@ -4443,8 +4333,8 @@
       <c r="I311" s="1"/>
       <c r="J311" s="1"/>
     </row>
-    <row r="312" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A312" s="1"/>
+    <row r="312" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A312" s="6"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
       <c r="D312" s="1"/>
@@ -4455,8 +4345,8 @@
       <c r="I312" s="1"/>
       <c r="J312" s="1"/>
     </row>
-    <row r="313" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A313" s="1"/>
+    <row r="313" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A313" s="6"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
       <c r="D313" s="1"/>
@@ -4467,8 +4357,8 @@
       <c r="I313" s="1"/>
       <c r="J313" s="1"/>
     </row>
-    <row r="314" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A314" s="1"/>
+    <row r="314" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A314" s="6"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
       <c r="D314" s="1"/>
@@ -4479,8 +4369,8 @@
       <c r="I314" s="1"/>
       <c r="J314" s="1"/>
     </row>
-    <row r="315" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A315" s="1"/>
+    <row r="315" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A315" s="6"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
       <c r="D315" s="1"/>
@@ -4491,8 +4381,8 @@
       <c r="I315" s="1"/>
       <c r="J315" s="1"/>
     </row>
-    <row r="316" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A316" s="1"/>
+    <row r="316" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A316" s="6"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
       <c r="D316" s="1"/>
@@ -4503,8 +4393,8 @@
       <c r="I316" s="1"/>
       <c r="J316" s="1"/>
     </row>
-    <row r="317" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A317" s="1"/>
+    <row r="317" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A317" s="6"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
       <c r="D317" s="1"/>
@@ -4515,8 +4405,8 @@
       <c r="I317" s="1"/>
       <c r="J317" s="1"/>
     </row>
-    <row r="318" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A318" s="1"/>
+    <row r="318" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A318" s="6"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
       <c r="D318" s="1"/>
@@ -4527,8 +4417,8 @@
       <c r="I318" s="1"/>
       <c r="J318" s="1"/>
     </row>
-    <row r="319" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A319" s="1"/>
+    <row r="319" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A319" s="6"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
       <c r="D319" s="1"/>
@@ -4539,8 +4429,8 @@
       <c r="I319" s="1"/>
       <c r="J319" s="1"/>
     </row>
-    <row r="320" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A320" s="1"/>
+    <row r="320" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A320" s="6"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
       <c r="D320" s="1"/>
@@ -4551,8 +4441,8 @@
       <c r="I320" s="1"/>
       <c r="J320" s="1"/>
     </row>
-    <row r="321" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A321" s="1"/>
+    <row r="321" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A321" s="6"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
       <c r="D321" s="1"/>
@@ -4563,8 +4453,8 @@
       <c r="I321" s="1"/>
       <c r="J321" s="1"/>
     </row>
-    <row r="322" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A322" s="1"/>
+    <row r="322" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A322" s="6"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
       <c r="D322" s="1"/>
@@ -4575,8 +4465,8 @@
       <c r="I322" s="1"/>
       <c r="J322" s="1"/>
     </row>
-    <row r="323" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A323" s="1"/>
+    <row r="323" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A323" s="6"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
       <c r="D323" s="1"/>
@@ -4587,8 +4477,8 @@
       <c r="I323" s="1"/>
       <c r="J323" s="1"/>
     </row>
-    <row r="324" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A324" s="1"/>
+    <row r="324" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A324" s="6"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
       <c r="D324" s="1"/>
@@ -4599,8 +4489,8 @@
       <c r="I324" s="1"/>
       <c r="J324" s="1"/>
     </row>
-    <row r="325" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A325" s="1"/>
+    <row r="325" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A325" s="6"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
       <c r="D325" s="1"/>
@@ -4611,8 +4501,8 @@
       <c r="I325" s="1"/>
       <c r="J325" s="1"/>
     </row>
-    <row r="326" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A326" s="1"/>
+    <row r="326" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A326" s="6"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
       <c r="D326" s="1"/>
@@ -4623,8 +4513,8 @@
       <c r="I326" s="1"/>
       <c r="J326" s="1"/>
     </row>
-    <row r="327" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A327" s="1"/>
+    <row r="327" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A327" s="6"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
       <c r="D327" s="1"/>
@@ -4635,8 +4525,8 @@
       <c r="I327" s="1"/>
       <c r="J327" s="1"/>
     </row>
-    <row r="328" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A328" s="1"/>
+    <row r="328" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A328" s="6"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
       <c r="D328" s="1"/>
@@ -4647,8 +4537,8 @@
       <c r="I328" s="1"/>
       <c r="J328" s="1"/>
     </row>
-    <row r="329" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A329" s="1"/>
+    <row r="329" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A329" s="6"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
       <c r="D329" s="1"/>
@@ -4659,8 +4549,8 @@
       <c r="I329" s="1"/>
       <c r="J329" s="1"/>
     </row>
-    <row r="330" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A330" s="1"/>
+    <row r="330" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A330" s="6"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
       <c r="D330" s="1"/>
@@ -4671,8 +4561,8 @@
       <c r="I330" s="1"/>
       <c r="J330" s="1"/>
     </row>
-    <row r="331" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A331" s="1"/>
+    <row r="331" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A331" s="6"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
       <c r="D331" s="1"/>
@@ -4683,8 +4573,8 @@
       <c r="I331" s="1"/>
       <c r="J331" s="1"/>
     </row>
-    <row r="332" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A332" s="1"/>
+    <row r="332" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A332" s="6"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
       <c r="D332" s="1"/>
@@ -4695,8 +4585,8 @@
       <c r="I332" s="1"/>
       <c r="J332" s="1"/>
     </row>
-    <row r="333" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A333" s="1"/>
+    <row r="333" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A333" s="6"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
       <c r="D333" s="1"/>
@@ -4707,8 +4597,8 @@
       <c r="I333" s="1"/>
       <c r="J333" s="1"/>
     </row>
-    <row r="334" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A334" s="1"/>
+    <row r="334" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A334" s="6"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
       <c r="D334" s="1"/>
@@ -4719,8 +4609,8 @@
       <c r="I334" s="1"/>
       <c r="J334" s="1"/>
     </row>
-    <row r="335" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A335" s="1"/>
+    <row r="335" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A335" s="6"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
       <c r="D335" s="1"/>
@@ -4731,8 +4621,8 @@
       <c r="I335" s="1"/>
       <c r="J335" s="1"/>
     </row>
-    <row r="336" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A336" s="1"/>
+    <row r="336" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A336" s="6"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
       <c r="D336" s="1"/>
@@ -4743,8 +4633,8 @@
       <c r="I336" s="1"/>
       <c r="J336" s="1"/>
     </row>
-    <row r="337" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A337" s="1"/>
+    <row r="337" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A337" s="6"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
       <c r="D337" s="1"/>
@@ -4755,8 +4645,8 @@
       <c r="I337" s="1"/>
       <c r="J337" s="1"/>
     </row>
-    <row r="338" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A338" s="1"/>
+    <row r="338" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A338" s="6"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
       <c r="D338" s="1"/>
@@ -4767,8 +4657,8 @@
       <c r="I338" s="1"/>
       <c r="J338" s="1"/>
     </row>
-    <row r="339" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A339" s="1"/>
+    <row r="339" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A339" s="6"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
       <c r="D339" s="1"/>
@@ -4779,8 +4669,8 @@
       <c r="I339" s="1"/>
       <c r="J339" s="1"/>
     </row>
-    <row r="340" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A340" s="1"/>
+    <row r="340" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A340" s="6"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
       <c r="D340" s="1"/>
@@ -4791,8 +4681,8 @@
       <c r="I340" s="1"/>
       <c r="J340" s="1"/>
     </row>
-    <row r="341" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A341" s="1"/>
+    <row r="341" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A341" s="6"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
       <c r="D341" s="1"/>
@@ -4803,8 +4693,8 @@
       <c r="I341" s="1"/>
       <c r="J341" s="1"/>
     </row>
-    <row r="342" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A342" s="1"/>
+    <row r="342" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A342" s="6"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
       <c r="D342" s="1"/>
@@ -4815,8 +4705,8 @@
       <c r="I342" s="1"/>
       <c r="J342" s="1"/>
     </row>
-    <row r="343" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A343" s="1"/>
+    <row r="343" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A343" s="6"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
       <c r="D343" s="1"/>
@@ -4827,8 +4717,8 @@
       <c r="I343" s="1"/>
       <c r="J343" s="1"/>
     </row>
-    <row r="344" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A344" s="1"/>
+    <row r="344" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A344" s="6"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
       <c r="D344" s="1"/>
@@ -4839,8 +4729,8 @@
       <c r="I344" s="1"/>
       <c r="J344" s="1"/>
     </row>
-    <row r="345" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A345" s="1"/>
+    <row r="345" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A345" s="6"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
       <c r="D345" s="1"/>
@@ -4851,8 +4741,8 @@
       <c r="I345" s="1"/>
       <c r="J345" s="1"/>
     </row>
-    <row r="346" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A346" s="1"/>
+    <row r="346" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A346" s="6"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
       <c r="D346" s="1"/>
@@ -4863,8 +4753,8 @@
       <c r="I346" s="1"/>
       <c r="J346" s="1"/>
     </row>
-    <row r="347" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A347" s="1"/>
+    <row r="347" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A347" s="6"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
       <c r="D347" s="1"/>
@@ -4875,8 +4765,8 @@
       <c r="I347" s="1"/>
       <c r="J347" s="1"/>
     </row>
-    <row r="348" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A348" s="1"/>
+    <row r="348" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A348" s="6"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
       <c r="D348" s="1"/>
@@ -4887,8 +4777,8 @@
       <c r="I348" s="1"/>
       <c r="J348" s="1"/>
     </row>
-    <row r="349" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A349" s="1"/>
+    <row r="349" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A349" s="6"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
       <c r="D349" s="1"/>
@@ -4899,8 +4789,8 @@
       <c r="I349" s="1"/>
       <c r="J349" s="1"/>
     </row>
-    <row r="350" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A350" s="1"/>
+    <row r="350" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A350" s="6"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
       <c r="D350" s="1"/>
@@ -4911,8 +4801,8 @@
       <c r="I350" s="1"/>
       <c r="J350" s="1"/>
     </row>
-    <row r="351" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A351" s="1"/>
+    <row r="351" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A351" s="6"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
       <c r="D351" s="1"/>
@@ -4923,8 +4813,8 @@
       <c r="I351" s="1"/>
       <c r="J351" s="1"/>
     </row>
-    <row r="352" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A352" s="1"/>
+    <row r="352" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A352" s="6"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
       <c r="D352" s="1"/>
@@ -4935,8 +4825,8 @@
       <c r="I352" s="1"/>
       <c r="J352" s="1"/>
     </row>
-    <row r="353" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A353" s="1"/>
+    <row r="353" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A353" s="6"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
       <c r="D353" s="1"/>
@@ -4947,8 +4837,8 @@
       <c r="I353" s="1"/>
       <c r="J353" s="1"/>
     </row>
-    <row r="354" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A354" s="1"/>
+    <row r="354" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A354" s="6"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
       <c r="D354" s="1"/>
@@ -4959,8 +4849,8 @@
       <c r="I354" s="1"/>
       <c r="J354" s="1"/>
     </row>
-    <row r="355" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A355" s="1"/>
+    <row r="355" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A355" s="6"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
       <c r="D355" s="1"/>
@@ -4971,8 +4861,8 @@
       <c r="I355" s="1"/>
       <c r="J355" s="1"/>
     </row>
-    <row r="356" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A356" s="1"/>
+    <row r="356" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A356" s="6"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
       <c r="D356" s="1"/>
@@ -4983,8 +4873,8 @@
       <c r="I356" s="1"/>
       <c r="J356" s="1"/>
     </row>
-    <row r="357" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A357" s="1"/>
+    <row r="357" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A357" s="6"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
       <c r="D357" s="1"/>
@@ -4995,8 +4885,8 @@
       <c r="I357" s="1"/>
       <c r="J357" s="1"/>
     </row>
-    <row r="358" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A358" s="1"/>
+    <row r="358" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A358" s="6"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
       <c r="D358" s="1"/>
@@ -5007,8 +4897,8 @@
       <c r="I358" s="1"/>
       <c r="J358" s="1"/>
     </row>
-    <row r="359" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A359" s="1"/>
+    <row r="359" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A359" s="6"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
       <c r="D359" s="1"/>
@@ -5019,8 +4909,8 @@
       <c r="I359" s="1"/>
       <c r="J359" s="1"/>
     </row>
-    <row r="360" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A360" s="1"/>
+    <row r="360" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A360" s="6"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
       <c r="D360" s="1"/>
@@ -5031,8 +4921,8 @@
       <c r="I360" s="1"/>
       <c r="J360" s="1"/>
     </row>
-    <row r="361" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A361" s="1"/>
+    <row r="361" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A361" s="6"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
       <c r="D361" s="1"/>
@@ -5043,8 +4933,8 @@
       <c r="I361" s="1"/>
       <c r="J361" s="1"/>
     </row>
-    <row r="362" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A362" s="1"/>
+    <row r="362" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A362" s="6"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
       <c r="D362" s="1"/>
@@ -5055,8 +4945,8 @@
       <c r="I362" s="1"/>
       <c r="J362" s="1"/>
     </row>
-    <row r="363" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A363" s="1"/>
+    <row r="363" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A363" s="6"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
       <c r="D363" s="1"/>
@@ -5067,8 +4957,8 @@
       <c r="I363" s="1"/>
       <c r="J363" s="1"/>
     </row>
-    <row r="364" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A364" s="1"/>
+    <row r="364" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A364" s="6"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
       <c r="D364" s="1"/>
@@ -5079,8 +4969,8 @@
       <c r="I364" s="1"/>
       <c r="J364" s="1"/>
     </row>
-    <row r="365" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A365" s="1"/>
+    <row r="365" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A365" s="6"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
       <c r="D365" s="1"/>
@@ -5091,8 +4981,8 @@
       <c r="I365" s="1"/>
       <c r="J365" s="1"/>
     </row>
-    <row r="366" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A366" s="1"/>
+    <row r="366" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A366" s="6"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
       <c r="D366" s="1"/>
@@ -5103,8 +4993,8 @@
       <c r="I366" s="1"/>
       <c r="J366" s="1"/>
     </row>
-    <row r="367" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A367" s="1"/>
+    <row r="367" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A367" s="6"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
       <c r="D367" s="1"/>
@@ -5115,8 +5005,8 @@
       <c r="I367" s="1"/>
       <c r="J367" s="1"/>
     </row>
-    <row r="368" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A368" s="1"/>
+    <row r="368" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A368" s="6"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
       <c r="D368" s="1"/>
@@ -5127,8 +5017,8 @@
       <c r="I368" s="1"/>
       <c r="J368" s="1"/>
     </row>
-    <row r="369" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A369" s="1"/>
+    <row r="369" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A369" s="6"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
       <c r="D369" s="1"/>
@@ -5139,8 +5029,8 @@
       <c r="I369" s="1"/>
       <c r="J369" s="1"/>
     </row>
-    <row r="370" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A370" s="1"/>
+    <row r="370" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A370" s="6"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
       <c r="D370" s="1"/>
@@ -5151,8 +5041,8 @@
       <c r="I370" s="1"/>
       <c r="J370" s="1"/>
     </row>
-    <row r="371" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A371" s="1"/>
+    <row r="371" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A371" s="6"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
       <c r="D371" s="1"/>
@@ -5163,8 +5053,8 @@
       <c r="I371" s="1"/>
       <c r="J371" s="1"/>
     </row>
-    <row r="372" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A372" s="1"/>
+    <row r="372" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A372" s="6"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
       <c r="D372" s="1"/>
@@ -5175,8 +5065,8 @@
       <c r="I372" s="1"/>
       <c r="J372" s="1"/>
     </row>
-    <row r="373" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A373" s="1"/>
+    <row r="373" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A373" s="6"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
       <c r="D373" s="1"/>
@@ -5187,8 +5077,8 @@
       <c r="I373" s="1"/>
       <c r="J373" s="1"/>
     </row>
-    <row r="374" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A374" s="1"/>
+    <row r="374" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A374" s="6"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
       <c r="D374" s="1"/>
@@ -5199,8 +5089,8 @@
       <c r="I374" s="1"/>
       <c r="J374" s="1"/>
     </row>
-    <row r="375" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A375" s="1"/>
+    <row r="375" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A375" s="6"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
       <c r="D375" s="1"/>
@@ -5211,8 +5101,8 @@
       <c r="I375" s="1"/>
       <c r="J375" s="1"/>
     </row>
-    <row r="376" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A376" s="1"/>
+    <row r="376" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A376" s="6"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
       <c r="D376" s="1"/>
@@ -5223,8 +5113,8 @@
       <c r="I376" s="1"/>
       <c r="J376" s="1"/>
     </row>
-    <row r="377" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A377" s="1"/>
+    <row r="377" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A377" s="6"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
       <c r="D377" s="1"/>
@@ -5235,8 +5125,8 @@
       <c r="I377" s="1"/>
       <c r="J377" s="1"/>
     </row>
-    <row r="378" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A378" s="1"/>
+    <row r="378" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A378" s="6"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
       <c r="D378" s="1"/>
@@ -5247,8 +5137,8 @@
       <c r="I378" s="1"/>
       <c r="J378" s="1"/>
     </row>
-    <row r="379" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A379" s="1"/>
+    <row r="379" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A379" s="6"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
       <c r="D379" s="1"/>
@@ -5259,8 +5149,8 @@
       <c r="I379" s="1"/>
       <c r="J379" s="1"/>
     </row>
-    <row r="380" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A380" s="1"/>
+    <row r="380" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A380" s="6"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
       <c r="D380" s="1"/>
@@ -5271,8 +5161,8 @@
       <c r="I380" s="1"/>
       <c r="J380" s="1"/>
     </row>
-    <row r="381" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A381" s="1"/>
+    <row r="381" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A381" s="6"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
       <c r="D381" s="1"/>
@@ -5283,8 +5173,8 @@
       <c r="I381" s="1"/>
       <c r="J381" s="1"/>
     </row>
-    <row r="382" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A382" s="1"/>
+    <row r="382" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A382" s="6"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
       <c r="D382" s="1"/>
@@ -5295,8 +5185,8 @@
       <c r="I382" s="1"/>
       <c r="J382" s="1"/>
     </row>
-    <row r="383" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A383" s="1"/>
+    <row r="383" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A383" s="6"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
       <c r="D383" s="1"/>
@@ -5307,8 +5197,8 @@
       <c r="I383" s="1"/>
       <c r="J383" s="1"/>
     </row>
-    <row r="384" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A384" s="1"/>
+    <row r="384" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A384" s="6"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
       <c r="D384" s="1"/>
@@ -5319,8 +5209,8 @@
       <c r="I384" s="1"/>
       <c r="J384" s="1"/>
     </row>
-    <row r="385" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A385" s="1"/>
+    <row r="385" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A385" s="6"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
       <c r="D385" s="1"/>
@@ -5331,8 +5221,8 @@
       <c r="I385" s="1"/>
       <c r="J385" s="1"/>
     </row>
-    <row r="386" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A386" s="1"/>
+    <row r="386" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A386" s="6"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
       <c r="D386" s="1"/>
@@ -5343,8 +5233,8 @@
       <c r="I386" s="1"/>
       <c r="J386" s="1"/>
     </row>
-    <row r="387" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A387" s="1"/>
+    <row r="387" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A387" s="6"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
       <c r="D387" s="1"/>
@@ -5355,8 +5245,8 @@
       <c r="I387" s="1"/>
       <c r="J387" s="1"/>
     </row>
-    <row r="388" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A388" s="1"/>
+    <row r="388" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A388" s="6"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
       <c r="D388" s="1"/>
@@ -5367,8 +5257,8 @@
       <c r="I388" s="1"/>
       <c r="J388" s="1"/>
     </row>
-    <row r="389" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A389" s="1"/>
+    <row r="389" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A389" s="6"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
       <c r="D389" s="1"/>
@@ -5379,8 +5269,8 @@
       <c r="I389" s="1"/>
       <c r="J389" s="1"/>
     </row>
-    <row r="390" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A390" s="1"/>
+    <row r="390" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A390" s="6"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
       <c r="D390" s="1"/>
@@ -5391,8 +5281,8 @@
       <c r="I390" s="1"/>
       <c r="J390" s="1"/>
     </row>
-    <row r="391" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A391" s="1"/>
+    <row r="391" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A391" s="6"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
       <c r="D391" s="1"/>
@@ -5403,8 +5293,8 @@
       <c r="I391" s="1"/>
       <c r="J391" s="1"/>
     </row>
-    <row r="392" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A392" s="1"/>
+    <row r="392" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A392" s="6"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
       <c r="D392" s="1"/>
@@ -5415,8 +5305,8 @@
       <c r="I392" s="1"/>
       <c r="J392" s="1"/>
     </row>
-    <row r="393" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A393" s="1"/>
+    <row r="393" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A393" s="6"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
       <c r="D393" s="1"/>
@@ -5427,8 +5317,8 @@
       <c r="I393" s="1"/>
       <c r="J393" s="1"/>
     </row>
-    <row r="394" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A394" s="1"/>
+    <row r="394" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A394" s="6"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
       <c r="D394" s="1"/>
@@ -5439,8 +5329,8 @@
       <c r="I394" s="1"/>
       <c r="J394" s="1"/>
     </row>
-    <row r="395" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A395" s="1"/>
+    <row r="395" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A395" s="6"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
       <c r="D395" s="1"/>
@@ -5451,8 +5341,8 @@
       <c r="I395" s="1"/>
       <c r="J395" s="1"/>
     </row>
-    <row r="396" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A396" s="1"/>
+    <row r="396" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A396" s="6"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
       <c r="D396" s="1"/>
@@ -5463,8 +5353,8 @@
       <c r="I396" s="1"/>
       <c r="J396" s="1"/>
     </row>
-    <row r="397" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A397" s="1"/>
+    <row r="397" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A397" s="6"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
       <c r="D397" s="1"/>
@@ -5475,8 +5365,8 @@
       <c r="I397" s="1"/>
       <c r="J397" s="1"/>
     </row>
-    <row r="398" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A398" s="1"/>
+    <row r="398" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A398" s="6"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
       <c r="D398" s="1"/>
@@ -5487,8 +5377,8 @@
       <c r="I398" s="1"/>
       <c r="J398" s="1"/>
     </row>
-    <row r="399" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A399" s="1"/>
+    <row r="399" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A399" s="6"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
       <c r="D399" s="1"/>
@@ -5499,8 +5389,8 @@
       <c r="I399" s="1"/>
       <c r="J399" s="1"/>
     </row>
-    <row r="400" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A400" s="1"/>
+    <row r="400" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A400" s="6"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
       <c r="D400" s="1"/>
@@ -5511,8 +5401,8 @@
       <c r="I400" s="1"/>
       <c r="J400" s="1"/>
     </row>
-    <row r="401" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A401" s="1"/>
+    <row r="401" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A401" s="6"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
       <c r="D401" s="1"/>
@@ -5523,8 +5413,8 @@
       <c r="I401" s="1"/>
       <c r="J401" s="1"/>
     </row>
-    <row r="402" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A402" s="1"/>
+    <row r="402" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A402" s="6"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
       <c r="D402" s="1"/>
@@ -5535,8 +5425,8 @@
       <c r="I402" s="1"/>
       <c r="J402" s="1"/>
     </row>
-    <row r="403" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A403" s="1"/>
+    <row r="403" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A403" s="6"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
       <c r="D403" s="1"/>
@@ -5547,8 +5437,8 @@
       <c r="I403" s="1"/>
       <c r="J403" s="1"/>
     </row>
-    <row r="404" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A404" s="1"/>
+    <row r="404" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A404" s="6"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
       <c r="D404" s="1"/>
@@ -5559,8 +5449,8 @@
       <c r="I404" s="1"/>
       <c r="J404" s="1"/>
     </row>
-    <row r="405" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A405" s="1"/>
+    <row r="405" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A405" s="6"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
       <c r="D405" s="1"/>
@@ -5571,8 +5461,8 @@
       <c r="I405" s="1"/>
       <c r="J405" s="1"/>
     </row>
-    <row r="406" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A406" s="1"/>
+    <row r="406" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A406" s="6"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
       <c r="D406" s="1"/>
@@ -5583,8 +5473,8 @@
       <c r="I406" s="1"/>
       <c r="J406" s="1"/>
     </row>
-    <row r="407" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A407" s="1"/>
+    <row r="407" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A407" s="6"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
       <c r="D407" s="1"/>
@@ -5595,8 +5485,8 @@
       <c r="I407" s="1"/>
       <c r="J407" s="1"/>
     </row>
-    <row r="408" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A408" s="1"/>
+    <row r="408" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A408" s="6"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
       <c r="D408" s="1"/>
@@ -5607,8 +5497,8 @@
       <c r="I408" s="1"/>
       <c r="J408" s="1"/>
     </row>
-    <row r="409" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A409" s="1"/>
+    <row r="409" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A409" s="6"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
       <c r="D409" s="1"/>
@@ -5619,8 +5509,8 @@
       <c r="I409" s="1"/>
       <c r="J409" s="1"/>
     </row>
-    <row r="410" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A410" s="1"/>
+    <row r="410" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A410" s="6"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
       <c r="D410" s="1"/>
@@ -5631,8 +5521,8 @@
       <c r="I410" s="1"/>
       <c r="J410" s="1"/>
     </row>
-    <row r="411" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A411" s="1"/>
+    <row r="411" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A411" s="6"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
       <c r="D411" s="1"/>
@@ -5643,8 +5533,8 @@
       <c r="I411" s="1"/>
       <c r="J411" s="1"/>
     </row>
-    <row r="412" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A412" s="1"/>
+    <row r="412" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A412" s="6"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
       <c r="D412" s="1"/>
@@ -5655,8 +5545,8 @@
       <c r="I412" s="1"/>
       <c r="J412" s="1"/>
     </row>
-    <row r="413" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A413" s="1"/>
+    <row r="413" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A413" s="6"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
       <c r="D413" s="1"/>
@@ -5667,8 +5557,8 @@
       <c r="I413" s="1"/>
       <c r="J413" s="1"/>
     </row>
-    <row r="414" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A414" s="1"/>
+    <row r="414" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A414" s="6"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
       <c r="D414" s="1"/>
@@ -5679,8 +5569,8 @@
       <c r="I414" s="1"/>
       <c r="J414" s="1"/>
     </row>
-    <row r="415" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A415" s="1"/>
+    <row r="415" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A415" s="6"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
       <c r="D415" s="1"/>
@@ -5691,6 +5581,1371 @@
       <c r="I415" s="1"/>
       <c r="J415" s="1"/>
     </row>
+    <row r="416" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A416" s="6"/>
+    </row>
+    <row r="417" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A417" s="6"/>
+    </row>
+    <row r="418" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A418" s="6"/>
+    </row>
+    <row r="419" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A419" s="6"/>
+    </row>
+    <row r="420" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A420" s="6"/>
+    </row>
+    <row r="421" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A421" s="6"/>
+    </row>
+    <row r="422" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A422" s="6"/>
+    </row>
+    <row r="423" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A423" s="6"/>
+    </row>
+    <row r="424" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A424" s="6"/>
+    </row>
+    <row r="425" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A425" s="6"/>
+    </row>
+    <row r="426" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A426" s="6"/>
+    </row>
+    <row r="427" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A427" s="6"/>
+    </row>
+    <row r="428" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A428" s="6"/>
+    </row>
+    <row r="429" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A429" s="6"/>
+    </row>
+    <row r="430" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A430" s="6"/>
+    </row>
+    <row r="431" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A431" s="6"/>
+    </row>
+    <row r="432" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A432" s="6"/>
+    </row>
+    <row r="433" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A433" s="6"/>
+    </row>
+    <row r="434" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A434" s="6"/>
+    </row>
+    <row r="435" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A435" s="6"/>
+    </row>
+    <row r="436" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A436" s="6"/>
+    </row>
+    <row r="437" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A437" s="6"/>
+    </row>
+    <row r="438" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A438" s="6"/>
+    </row>
+    <row r="439" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A439" s="6"/>
+    </row>
+    <row r="440" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A440" s="6"/>
+    </row>
+    <row r="441" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A441" s="6"/>
+    </row>
+    <row r="442" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A442" s="6"/>
+    </row>
+    <row r="443" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A443" s="6"/>
+    </row>
+    <row r="444" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A444" s="6"/>
+    </row>
+    <row r="445" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A445" s="6"/>
+    </row>
+    <row r="446" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A446" s="6"/>
+    </row>
+    <row r="447" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A447" s="6"/>
+    </row>
+    <row r="448" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A448" s="6"/>
+    </row>
+    <row r="449" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A449" s="6"/>
+    </row>
+    <row r="450" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A450" s="6"/>
+    </row>
+    <row r="451" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A451" s="6"/>
+    </row>
+    <row r="452" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A452" s="6"/>
+    </row>
+    <row r="453" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A453" s="6"/>
+    </row>
+    <row r="454" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A454" s="6"/>
+    </row>
+    <row r="455" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A455" s="6"/>
+    </row>
+    <row r="456" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A456" s="6"/>
+    </row>
+    <row r="457" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A457" s="6"/>
+    </row>
+    <row r="458" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A458" s="6"/>
+    </row>
+    <row r="459" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A459" s="6"/>
+    </row>
+    <row r="460" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A460" s="6"/>
+    </row>
+    <row r="461" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A461" s="6"/>
+    </row>
+    <row r="462" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A462" s="6"/>
+    </row>
+    <row r="463" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A463" s="6"/>
+    </row>
+    <row r="464" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A464" s="6"/>
+    </row>
+    <row r="465" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A465" s="6"/>
+    </row>
+    <row r="466" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A466" s="6"/>
+    </row>
+    <row r="467" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A467" s="6"/>
+    </row>
+    <row r="468" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A468" s="6"/>
+    </row>
+    <row r="469" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A469" s="6"/>
+    </row>
+    <row r="470" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A470" s="6"/>
+    </row>
+    <row r="471" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A471" s="6"/>
+    </row>
+    <row r="472" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A472" s="6"/>
+    </row>
+    <row r="473" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A473" s="6"/>
+    </row>
+    <row r="474" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A474" s="6"/>
+    </row>
+    <row r="475" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A475" s="6"/>
+    </row>
+    <row r="476" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A476" s="6"/>
+    </row>
+    <row r="477" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A477" s="6"/>
+    </row>
+    <row r="478" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A478" s="6"/>
+    </row>
+    <row r="479" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A479" s="6"/>
+    </row>
+    <row r="480" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A480" s="6"/>
+    </row>
+    <row r="481" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A481" s="6"/>
+    </row>
+    <row r="482" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A482" s="6"/>
+    </row>
+    <row r="483" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A483" s="6"/>
+    </row>
+    <row r="484" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A484" s="6"/>
+    </row>
+    <row r="485" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A485" s="6"/>
+    </row>
+    <row r="486" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A486" s="6"/>
+    </row>
+    <row r="487" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A487" s="6"/>
+    </row>
+    <row r="488" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A488" s="6"/>
+    </row>
+    <row r="489" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A489" s="6"/>
+    </row>
+    <row r="490" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A490" s="6"/>
+    </row>
+    <row r="491" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A491" s="6"/>
+    </row>
+    <row r="492" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A492" s="6"/>
+    </row>
+    <row r="493" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A493" s="6"/>
+    </row>
+    <row r="494" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A494" s="6"/>
+    </row>
+    <row r="495" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A495" s="6"/>
+    </row>
+    <row r="496" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A496" s="6"/>
+    </row>
+    <row r="497" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A497" s="6"/>
+    </row>
+    <row r="498" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A498" s="6"/>
+    </row>
+    <row r="499" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A499" s="6"/>
+    </row>
+    <row r="500" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A500" s="6"/>
+    </row>
+    <row r="501" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A501" s="6"/>
+    </row>
+    <row r="502" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A502" s="6"/>
+    </row>
+    <row r="503" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A503" s="6"/>
+    </row>
+    <row r="504" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A504" s="6"/>
+    </row>
+    <row r="505" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A505" s="6"/>
+    </row>
+    <row r="506" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A506" s="6"/>
+    </row>
+    <row r="507" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A507" s="6"/>
+    </row>
+    <row r="508" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A508" s="6"/>
+    </row>
+    <row r="509" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A509" s="6"/>
+    </row>
+    <row r="510" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A510" s="6"/>
+    </row>
+    <row r="511" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A511" s="6"/>
+    </row>
+    <row r="512" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A512" s="6"/>
+    </row>
+    <row r="513" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A513" s="6"/>
+    </row>
+    <row r="514" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A514" s="6"/>
+    </row>
+    <row r="515" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A515" s="6"/>
+    </row>
+    <row r="516" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A516" s="6"/>
+    </row>
+    <row r="517" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A517" s="6"/>
+    </row>
+    <row r="518" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A518" s="6"/>
+    </row>
+    <row r="519" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A519" s="6"/>
+    </row>
+    <row r="520" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A520" s="6"/>
+    </row>
+    <row r="521" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A521" s="6"/>
+    </row>
+    <row r="522" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A522" s="6"/>
+    </row>
+    <row r="523" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A523" s="6"/>
+    </row>
+    <row r="524" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A524" s="6"/>
+    </row>
+    <row r="525" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A525" s="6"/>
+    </row>
+    <row r="526" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A526" s="6"/>
+    </row>
+    <row r="527" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A527" s="6"/>
+    </row>
+    <row r="528" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A528" s="6"/>
+    </row>
+    <row r="529" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A529" s="6"/>
+    </row>
+    <row r="530" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A530" s="6"/>
+    </row>
+    <row r="531" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A531" s="6"/>
+    </row>
+    <row r="532" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A532" s="6"/>
+    </row>
+    <row r="533" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A533" s="6"/>
+    </row>
+    <row r="534" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A534" s="6"/>
+    </row>
+    <row r="535" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A535" s="6"/>
+    </row>
+    <row r="536" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A536" s="6"/>
+    </row>
+    <row r="537" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A537" s="6"/>
+    </row>
+    <row r="538" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A538" s="6"/>
+    </row>
+    <row r="539" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A539" s="6"/>
+    </row>
+    <row r="540" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A540" s="6"/>
+    </row>
+    <row r="541" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A541" s="6"/>
+    </row>
+    <row r="542" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A542" s="6"/>
+    </row>
+    <row r="543" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A543" s="6"/>
+    </row>
+    <row r="544" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A544" s="6"/>
+    </row>
+    <row r="545" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A545" s="6"/>
+    </row>
+    <row r="546" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A546" s="6"/>
+    </row>
+    <row r="547" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A547" s="6"/>
+    </row>
+    <row r="548" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A548" s="6"/>
+    </row>
+    <row r="549" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A549" s="6"/>
+    </row>
+    <row r="550" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A550" s="6"/>
+    </row>
+    <row r="551" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A551" s="6"/>
+    </row>
+    <row r="552" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A552" s="6"/>
+    </row>
+    <row r="553" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A553" s="6"/>
+    </row>
+    <row r="554" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A554" s="6"/>
+    </row>
+    <row r="555" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A555" s="6"/>
+    </row>
+    <row r="556" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A556" s="6"/>
+    </row>
+    <row r="557" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A557" s="6"/>
+    </row>
+    <row r="558" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A558" s="6"/>
+    </row>
+    <row r="559" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A559" s="6"/>
+    </row>
+    <row r="560" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A560" s="6"/>
+    </row>
+    <row r="561" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A561" s="6"/>
+    </row>
+    <row r="562" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A562" s="6"/>
+    </row>
+    <row r="563" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A563" s="6"/>
+    </row>
+    <row r="564" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A564" s="6"/>
+    </row>
+    <row r="565" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A565" s="6"/>
+    </row>
+    <row r="566" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A566" s="6"/>
+    </row>
+    <row r="567" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A567" s="6"/>
+    </row>
+    <row r="568" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A568" s="6"/>
+    </row>
+    <row r="569" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A569" s="6"/>
+    </row>
+    <row r="570" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A570" s="6"/>
+    </row>
+    <row r="571" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A571" s="6"/>
+    </row>
+    <row r="572" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A572" s="6"/>
+    </row>
+    <row r="573" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A573" s="6"/>
+    </row>
+    <row r="574" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A574" s="6"/>
+    </row>
+    <row r="575" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A575" s="6"/>
+    </row>
+    <row r="576" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A576" s="6"/>
+    </row>
+    <row r="577" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A577" s="6"/>
+    </row>
+    <row r="578" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A578" s="6"/>
+    </row>
+    <row r="579" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A579" s="6"/>
+    </row>
+    <row r="580" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A580" s="6"/>
+    </row>
+    <row r="581" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A581" s="6"/>
+    </row>
+    <row r="582" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A582" s="6"/>
+    </row>
+    <row r="583" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A583" s="6"/>
+    </row>
+    <row r="584" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A584" s="6"/>
+    </row>
+    <row r="585" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A585" s="6"/>
+    </row>
+    <row r="586" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A586" s="6"/>
+    </row>
+    <row r="587" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A587" s="6"/>
+    </row>
+    <row r="588" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A588" s="6"/>
+    </row>
+    <row r="589" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A589" s="6"/>
+    </row>
+    <row r="590" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A590" s="6"/>
+    </row>
+    <row r="591" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A591" s="6"/>
+    </row>
+    <row r="592" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A592" s="6"/>
+    </row>
+    <row r="593" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A593" s="6"/>
+    </row>
+    <row r="594" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A594" s="6"/>
+    </row>
+    <row r="595" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A595" s="6"/>
+    </row>
+    <row r="596" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A596" s="6"/>
+    </row>
+    <row r="597" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A597" s="6"/>
+    </row>
+    <row r="598" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A598" s="6"/>
+    </row>
+    <row r="599" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A599" s="6"/>
+    </row>
+    <row r="600" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A600" s="6"/>
+    </row>
+    <row r="601" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A601" s="6"/>
+    </row>
+    <row r="602" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A602" s="6"/>
+    </row>
+    <row r="603" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A603" s="6"/>
+    </row>
+    <row r="604" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A604" s="6"/>
+    </row>
+    <row r="605" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A605" s="6"/>
+    </row>
+    <row r="606" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A606" s="6"/>
+    </row>
+    <row r="607" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A607" s="6"/>
+    </row>
+    <row r="608" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A608" s="6"/>
+    </row>
+    <row r="609" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A609" s="6"/>
+    </row>
+    <row r="610" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A610" s="6"/>
+    </row>
+    <row r="611" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A611" s="6"/>
+    </row>
+    <row r="612" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A612" s="6"/>
+    </row>
+    <row r="613" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A613" s="6"/>
+    </row>
+    <row r="614" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A614" s="6"/>
+    </row>
+    <row r="615" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A615" s="6"/>
+    </row>
+    <row r="616" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A616" s="6"/>
+    </row>
+    <row r="617" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A617" s="6"/>
+    </row>
+    <row r="618" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A618" s="6"/>
+    </row>
+    <row r="619" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A619" s="6"/>
+    </row>
+    <row r="620" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A620" s="6"/>
+    </row>
+    <row r="621" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A621" s="6"/>
+    </row>
+    <row r="622" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A622" s="6"/>
+    </row>
+    <row r="623" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A623" s="6"/>
+    </row>
+    <row r="624" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A624" s="6"/>
+    </row>
+    <row r="625" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A625" s="6"/>
+    </row>
+    <row r="626" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A626" s="6"/>
+    </row>
+    <row r="627" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A627" s="6"/>
+    </row>
+    <row r="628" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A628" s="6"/>
+    </row>
+    <row r="629" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A629" s="6"/>
+    </row>
+    <row r="630" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A630" s="6"/>
+    </row>
+    <row r="631" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A631" s="6"/>
+    </row>
+    <row r="632" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A632" s="6"/>
+    </row>
+    <row r="633" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A633" s="6"/>
+    </row>
+    <row r="634" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A634" s="6"/>
+    </row>
+    <row r="635" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A635" s="6"/>
+    </row>
+    <row r="636" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A636" s="6"/>
+    </row>
+    <row r="637" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A637" s="6"/>
+    </row>
+    <row r="638" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A638" s="6"/>
+    </row>
+    <row r="639" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A639" s="6"/>
+    </row>
+    <row r="640" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A640" s="6"/>
+    </row>
+    <row r="641" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A641" s="6"/>
+    </row>
+    <row r="642" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A642" s="6"/>
+    </row>
+    <row r="643" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A643" s="6"/>
+    </row>
+    <row r="644" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A644" s="6"/>
+    </row>
+    <row r="645" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A645" s="6"/>
+    </row>
+    <row r="646" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A646" s="6"/>
+    </row>
+    <row r="647" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A647" s="6"/>
+    </row>
+    <row r="648" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A648" s="6"/>
+    </row>
+    <row r="649" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A649" s="6"/>
+    </row>
+    <row r="650" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A650" s="6"/>
+    </row>
+    <row r="651" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A651" s="6"/>
+    </row>
+    <row r="652" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A652" s="6"/>
+    </row>
+    <row r="653" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A653" s="6"/>
+    </row>
+    <row r="654" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A654" s="6"/>
+    </row>
+    <row r="655" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A655" s="6"/>
+    </row>
+    <row r="656" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A656" s="6"/>
+    </row>
+    <row r="657" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A657" s="6"/>
+    </row>
+    <row r="658" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A658" s="6"/>
+    </row>
+    <row r="659" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A659" s="6"/>
+    </row>
+    <row r="660" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A660" s="6"/>
+    </row>
+    <row r="661" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A661" s="6"/>
+    </row>
+    <row r="662" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A662" s="6"/>
+    </row>
+    <row r="663" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A663" s="6"/>
+    </row>
+    <row r="664" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A664" s="6"/>
+    </row>
+    <row r="665" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A665" s="6"/>
+    </row>
+    <row r="666" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A666" s="6"/>
+    </row>
+    <row r="667" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A667" s="6"/>
+    </row>
+    <row r="668" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A668" s="6"/>
+    </row>
+    <row r="669" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A669" s="6"/>
+    </row>
+    <row r="670" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A670" s="6"/>
+    </row>
+    <row r="671" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A671" s="6"/>
+    </row>
+    <row r="672" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A672" s="6"/>
+    </row>
+    <row r="673" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A673" s="6"/>
+    </row>
+    <row r="674" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A674" s="6"/>
+    </row>
+    <row r="675" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A675" s="6"/>
+    </row>
+    <row r="676" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A676" s="6"/>
+    </row>
+    <row r="677" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A677" s="6"/>
+    </row>
+    <row r="678" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A678" s="6"/>
+    </row>
+    <row r="679" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A679" s="6"/>
+    </row>
+    <row r="680" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A680" s="6"/>
+    </row>
+    <row r="681" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A681" s="6"/>
+    </row>
+    <row r="682" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A682" s="6"/>
+    </row>
+    <row r="683" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A683" s="6"/>
+    </row>
+    <row r="684" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A684" s="6"/>
+    </row>
+    <row r="685" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A685" s="6"/>
+    </row>
+    <row r="686" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A686" s="6"/>
+    </row>
+    <row r="687" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A687" s="6"/>
+    </row>
+    <row r="688" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A688" s="6"/>
+    </row>
+    <row r="689" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A689" s="6"/>
+    </row>
+    <row r="690" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A690" s="6"/>
+    </row>
+    <row r="691" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A691" s="6"/>
+    </row>
+    <row r="692" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A692" s="6"/>
+    </row>
+    <row r="693" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A693" s="6"/>
+    </row>
+    <row r="694" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A694" s="6"/>
+    </row>
+    <row r="695" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A695" s="6"/>
+    </row>
+    <row r="696" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A696" s="6"/>
+    </row>
+    <row r="697" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A697" s="6"/>
+    </row>
+    <row r="698" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A698" s="6"/>
+    </row>
+    <row r="699" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A699" s="6"/>
+    </row>
+    <row r="700" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A700" s="6"/>
+    </row>
+    <row r="701" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A701" s="6"/>
+    </row>
+    <row r="702" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A702" s="6"/>
+    </row>
+    <row r="703" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A703" s="6"/>
+    </row>
+    <row r="704" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A704" s="6"/>
+    </row>
+    <row r="705" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A705" s="6"/>
+    </row>
+    <row r="706" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A706" s="6"/>
+    </row>
+    <row r="707" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A707" s="6"/>
+    </row>
+    <row r="708" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A708" s="6"/>
+    </row>
+    <row r="709" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A709" s="6"/>
+    </row>
+    <row r="710" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A710" s="6"/>
+    </row>
+    <row r="711" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A711" s="6"/>
+    </row>
+    <row r="712" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A712" s="6"/>
+    </row>
+    <row r="713" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A713" s="6"/>
+    </row>
+    <row r="714" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A714" s="6"/>
+    </row>
+    <row r="715" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A715" s="6"/>
+    </row>
+    <row r="716" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A716" s="6"/>
+    </row>
+    <row r="717" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A717" s="6"/>
+    </row>
+    <row r="718" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A718" s="6"/>
+    </row>
+    <row r="719" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A719" s="6"/>
+    </row>
+    <row r="720" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A720" s="6"/>
+    </row>
+    <row r="721" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A721" s="6"/>
+    </row>
+    <row r="722" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A722" s="6"/>
+    </row>
+    <row r="723" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A723" s="6"/>
+    </row>
+    <row r="724" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A724" s="6"/>
+    </row>
+    <row r="725" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A725" s="6"/>
+    </row>
+    <row r="726" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A726" s="6"/>
+    </row>
+    <row r="727" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A727" s="6"/>
+    </row>
+    <row r="728" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A728" s="6"/>
+    </row>
+    <row r="729" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A729" s="6"/>
+    </row>
+    <row r="730" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A730" s="6"/>
+    </row>
+    <row r="731" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A731" s="6"/>
+    </row>
+    <row r="732" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A732" s="6"/>
+    </row>
+    <row r="733" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A733" s="6"/>
+    </row>
+    <row r="734" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A734" s="6"/>
+    </row>
+    <row r="735" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A735" s="6"/>
+    </row>
+    <row r="736" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A736" s="6"/>
+    </row>
+    <row r="737" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A737" s="6"/>
+    </row>
+    <row r="738" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A738" s="6"/>
+    </row>
+    <row r="739" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A739" s="6"/>
+    </row>
+    <row r="740" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A740" s="6"/>
+    </row>
+    <row r="741" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A741" s="6"/>
+    </row>
+    <row r="742" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A742" s="6"/>
+    </row>
+    <row r="743" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A743" s="6"/>
+    </row>
+    <row r="744" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A744" s="6"/>
+    </row>
+    <row r="745" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A745" s="6"/>
+    </row>
+    <row r="746" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A746" s="6"/>
+    </row>
+    <row r="747" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A747" s="6"/>
+    </row>
+    <row r="748" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A748" s="6"/>
+    </row>
+    <row r="749" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A749" s="6"/>
+    </row>
+    <row r="750" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A750" s="6"/>
+    </row>
+    <row r="751" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A751" s="6"/>
+    </row>
+    <row r="752" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A752" s="6"/>
+    </row>
+    <row r="753" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A753" s="6"/>
+    </row>
+    <row r="754" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A754" s="6"/>
+    </row>
+    <row r="755" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A755" s="6"/>
+    </row>
+    <row r="756" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A756" s="6"/>
+    </row>
+    <row r="757" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A757" s="6"/>
+    </row>
+    <row r="758" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A758" s="6"/>
+    </row>
+    <row r="759" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A759" s="6"/>
+    </row>
+    <row r="760" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A760" s="6"/>
+    </row>
+    <row r="761" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A761" s="6"/>
+    </row>
+    <row r="762" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A762" s="6"/>
+    </row>
+    <row r="763" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A763" s="6"/>
+    </row>
+    <row r="764" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A764" s="6"/>
+    </row>
+    <row r="765" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A765" s="6"/>
+    </row>
+    <row r="766" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A766" s="6"/>
+    </row>
+    <row r="767" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A767" s="6"/>
+    </row>
+    <row r="768" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A768" s="6"/>
+    </row>
+    <row r="769" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A769" s="6"/>
+    </row>
+    <row r="770" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A770" s="6"/>
+    </row>
+    <row r="771" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A771" s="6"/>
+    </row>
+    <row r="772" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A772" s="6"/>
+    </row>
+    <row r="773" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A773" s="6"/>
+    </row>
+    <row r="774" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A774" s="6"/>
+    </row>
+    <row r="775" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A775" s="6"/>
+    </row>
+    <row r="776" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A776" s="6"/>
+    </row>
+    <row r="777" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A777" s="6"/>
+    </row>
+    <row r="778" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A778" s="6"/>
+    </row>
+    <row r="779" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A779" s="6"/>
+    </row>
+    <row r="780" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A780" s="6"/>
+    </row>
+    <row r="781" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A781" s="6"/>
+    </row>
+    <row r="782" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A782" s="6"/>
+    </row>
+    <row r="783" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A783" s="6"/>
+    </row>
+    <row r="784" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A784" s="6"/>
+    </row>
+    <row r="785" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A785" s="6"/>
+    </row>
+    <row r="786" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A786" s="6"/>
+    </row>
+    <row r="787" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A787" s="6"/>
+    </row>
+    <row r="788" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A788" s="6"/>
+    </row>
+    <row r="789" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A789" s="6"/>
+    </row>
+    <row r="790" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A790" s="6"/>
+    </row>
+    <row r="791" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A791" s="6"/>
+    </row>
+    <row r="792" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A792" s="6"/>
+    </row>
+    <row r="793" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A793" s="6"/>
+    </row>
+    <row r="794" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A794" s="6"/>
+    </row>
+    <row r="795" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A795" s="6"/>
+    </row>
+    <row r="796" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A796" s="6"/>
+    </row>
+    <row r="797" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A797" s="6"/>
+    </row>
+    <row r="798" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A798" s="6"/>
+    </row>
+    <row r="799" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A799" s="6"/>
+    </row>
+    <row r="800" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A800" s="6"/>
+    </row>
+    <row r="801" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A801" s="6"/>
+    </row>
+    <row r="802" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A802" s="6"/>
+    </row>
+    <row r="803" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A803" s="6"/>
+    </row>
+    <row r="804" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A804" s="6"/>
+    </row>
+    <row r="805" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A805" s="6"/>
+    </row>
+    <row r="806" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A806" s="6"/>
+    </row>
+    <row r="807" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A807" s="6"/>
+    </row>
+    <row r="808" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A808" s="6"/>
+    </row>
+    <row r="809" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A809" s="6"/>
+    </row>
+    <row r="810" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A810" s="6"/>
+    </row>
+    <row r="811" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A811" s="6"/>
+    </row>
+    <row r="812" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A812" s="6"/>
+    </row>
+    <row r="813" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A813" s="6"/>
+    </row>
+    <row r="814" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A814" s="6"/>
+    </row>
+    <row r="815" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A815" s="6"/>
+    </row>
+    <row r="816" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A816" s="6"/>
+    </row>
+    <row r="817" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A817" s="6"/>
+    </row>
+    <row r="818" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A818" s="6"/>
+    </row>
+    <row r="819" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A819" s="6"/>
+    </row>
+    <row r="820" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A820" s="6"/>
+    </row>
+    <row r="821" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A821" s="6"/>
+    </row>
+    <row r="822" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A822" s="6"/>
+    </row>
+    <row r="823" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A823" s="6"/>
+    </row>
+    <row r="824" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A824" s="6"/>
+    </row>
+    <row r="825" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A825" s="6"/>
+    </row>
+    <row r="826" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A826" s="6"/>
+    </row>
+    <row r="827" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A827" s="6"/>
+    </row>
+    <row r="828" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A828" s="6"/>
+    </row>
+    <row r="829" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A829" s="6"/>
+    </row>
+    <row r="830" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A830" s="6"/>
+    </row>
+    <row r="831" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A831" s="6"/>
+    </row>
+    <row r="832" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A832" s="6"/>
+    </row>
+    <row r="833" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A833" s="6"/>
+    </row>
+    <row r="834" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A834" s="6"/>
+    </row>
+    <row r="835" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A835" s="6"/>
+    </row>
+    <row r="836" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A836" s="6"/>
+    </row>
+    <row r="837" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A837" s="6"/>
+    </row>
+    <row r="838" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A838" s="6"/>
+    </row>
+    <row r="839" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A839" s="6"/>
+    </row>
+    <row r="840" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A840" s="6"/>
+    </row>
+    <row r="841" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A841" s="6"/>
+    </row>
+    <row r="842" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A842" s="6"/>
+    </row>
+    <row r="843" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A843" s="6"/>
+    </row>
+    <row r="844" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A844" s="6"/>
+    </row>
+    <row r="845" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A845" s="6"/>
+    </row>
+    <row r="846" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A846" s="6"/>
+    </row>
+    <row r="847" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A847" s="6"/>
+    </row>
+    <row r="848" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A848" s="6"/>
+    </row>
+    <row r="849" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A849" s="6"/>
+    </row>
+    <row r="850" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A850" s="6"/>
+    </row>
+    <row r="851" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A851" s="6"/>
+    </row>
+    <row r="852" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A852" s="6"/>
+    </row>
+    <row r="853" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A853" s="6"/>
+    </row>
+    <row r="854" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A854" s="6"/>
+    </row>
+    <row r="855" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A855" s="6"/>
+    </row>
+    <row r="856" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A856" s="6"/>
+    </row>
+    <row r="857" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A857" s="6"/>
+    </row>
+    <row r="858" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A858" s="6"/>
+    </row>
+    <row r="859" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A859" s="6"/>
+    </row>
+    <row r="860" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A860" s="6"/>
+    </row>
+    <row r="861" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A861" s="6"/>
+    </row>
+    <row r="862" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A862" s="6"/>
+    </row>
+    <row r="863" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A863" s="6"/>
+    </row>
+    <row r="864" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A864" s="6"/>
+    </row>
+    <row r="865" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A865" s="6"/>
+    </row>
+    <row r="866" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A866" s="6"/>
+    </row>
+    <row r="867" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A867" s="6"/>
+    </row>
+    <row r="868" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A868" s="6"/>
+    </row>
+    <row r="869" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A869" s="6"/>
+    </row>
+    <row r="870" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A870" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="82" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
